--- a/TRATAMENTO_DE_DADOS.xlsx
+++ b/TRATAMENTO_DE_DADOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr filterPrivacy="1" updateLinks="always"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99DDA6-3644-4B11-BCE8-72CB4C643EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16485BA5-8D3C-4BDB-8E9C-AD1060CBBF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AJ10" authorId="0" shapeId="0" xr:uid="{2BFEF04E-5901-413D-8388-64974978AD16}">
+    <comment ref="AJ9" authorId="0" shapeId="0" xr:uid="{2BFEF04E-5901-413D-8388-64974978AD16}">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ34" authorId="0" shapeId="0" xr:uid="{178F8C0D-F8CA-47D9-BC7A-91B25082FA9E}">
+    <comment ref="AJ35" authorId="0" shapeId="0" xr:uid="{178F8C0D-F8CA-47D9-BC7A-91B25082FA9E}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>XY</t>
   </si>
@@ -164,12 +164,6 @@
     <t>Tratamento</t>
   </si>
   <si>
-    <t>nr of comma</t>
-  </si>
-  <si>
-    <t>=MID(A2, SEARCH(",",A2) + 1, SEARCH(",",A2,SEARCH(",",A2)+1) - SEARCH(",",A2) - 1)</t>
-  </si>
-  <si>
     <t>nro</t>
   </si>
   <si>
@@ -194,28 +188,10 @@
     <t>Consumo em kWh - Fora Ponta</t>
   </si>
   <si>
-    <t>Energia Atv Injetada - Fora Ponta</t>
-  </si>
-  <si>
-    <t>Energia Reativa Exced em KWh - Ponta</t>
-  </si>
-  <si>
-    <t>Energia Reativa Exced em KWh - FPonta</t>
-  </si>
-  <si>
-    <t>Demanda de Potência Medida - Fora Ponta</t>
-  </si>
-  <si>
-    <t>Demanda Potência Não Consumida - F Ponta</t>
-  </si>
-  <si>
     <t>Tratamento consumo/injeção</t>
   </si>
   <si>
     <t>LEN_resto</t>
-  </si>
-  <si>
-    <t>CONSUMO MENSAL</t>
   </si>
   <si>
     <t>Energia Reativa Exced (P)</t>
@@ -234,9 +210,6 @@
   </si>
   <si>
     <t>Lenght</t>
-  </si>
-  <si>
-    <t>TARIFA CONSUMO c/ TRIBUTOS</t>
   </si>
   <si>
     <t>Energia Ativa Injetada (P)</t>
@@ -364,12 +337,93 @@
   <si>
     <t>Mes de Referencia</t>
   </si>
+  <si>
+    <t>CONSUMO MENSAL (pequeno consumidor)</t>
+  </si>
+  <si>
+    <t>Consumo em kWh</t>
+  </si>
+  <si>
+    <t>Energia Atv Injetada</t>
+  </si>
+  <si>
+    <t>Dif. Custo Disp. Res.</t>
+  </si>
+  <si>
+    <t>Extras (grande consumidor)</t>
+  </si>
+  <si>
+    <t>Contrib. Ilum. Publ.</t>
+  </si>
+  <si>
+    <t>JUROS MORA</t>
+  </si>
+  <si>
+    <t>MULTA</t>
+  </si>
+  <si>
+    <t>ATUALIZACAO MONETARIA</t>
+  </si>
+  <si>
+    <t>VALOR (Consumo x Tarifa) (pequeno consumidor)</t>
+  </si>
+  <si>
+    <t>Valor Consumo em kWh</t>
+  </si>
+  <si>
+    <t>Valor Energia Atv Injetada</t>
+  </si>
+  <si>
+    <t>Valor Dif. Custo Disp. Res.</t>
+  </si>
+  <si>
+    <t>VALOR (Consumo x Tarifa) (grande consumidor)</t>
+  </si>
+  <si>
+    <t>Tarifa CONSUMO MENSAL c/ tributos (pequeno consumidor)</t>
+  </si>
+  <si>
+    <t>Tarifa Consumo em kWh</t>
+  </si>
+  <si>
+    <t>Tarifa Energia Atv Injetada</t>
+  </si>
+  <si>
+    <t>Tarifa Dif. Custo Disp. Res.</t>
+  </si>
+  <si>
+    <t>TARIFA CONSUMO c/ TRIBUTOS (grande consumidor)</t>
+  </si>
+  <si>
+    <t>CONSUMO MENSAL (grande consumidor)</t>
+  </si>
+  <si>
+    <t>Tratamento consumo/injeção (peq)</t>
+  </si>
+  <si>
+    <t>Tratamento tarifa (peq)</t>
+  </si>
+  <si>
+    <t>Tarifa Consumo em kWh - Ponta</t>
+  </si>
+  <si>
+    <t>Tarifa Energia Atv Injetada - Ponta</t>
+  </si>
+  <si>
+    <t>Tarifa Consumo em kWh - Fora Ponta</t>
+  </si>
+  <si>
+    <t>Tratamento Valor (peq)</t>
+  </si>
+  <si>
+    <t>Tratamento extras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +452,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,8 +479,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -590,11 +662,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -654,6 +1034,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +1210,7 @@
             <v xml:space="preserve"> às: </v>
           </cell>
           <cell r="E2" t="str">
-            <v>20:09:28</v>
+            <v>23:16:03</v>
           </cell>
         </row>
         <row r="3">
@@ -774,7 +1280,7 @@
             <v>754</v>
           </cell>
           <cell r="E7" t="str">
-            <v>0002598964-2022-09-4</v>
+            <v>0002598964-2022-08-6</v>
           </cell>
         </row>
         <row r="8">
@@ -816,7 +1322,7 @@
             <v>750</v>
           </cell>
           <cell r="E10" t="str">
-            <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.016.131Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
+            <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.015.819Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
           </cell>
         </row>
         <row r="11">
@@ -830,7 +1336,7 @@
             <v>712</v>
           </cell>
           <cell r="E11" t="str">
-            <v>Emissão: 03/10/2022</v>
+            <v>Emissão: 01/09/2022</v>
           </cell>
         </row>
         <row r="12">
@@ -866,13 +1372,13 @@
             <v>4</v>
           </cell>
           <cell r="C14">
-            <v>46</v>
+            <v>54</v>
           </cell>
           <cell r="D14">
             <v>674</v>
           </cell>
           <cell r="E14" t="str">
-            <v>Setembro/2022</v>
+            <v>Agosto/2022</v>
           </cell>
         </row>
         <row r="15">
@@ -886,7 +1392,7 @@
             <v>674</v>
           </cell>
           <cell r="E15" t="str">
-            <v>06/10/2022</v>
+            <v>06/09/2022</v>
           </cell>
         </row>
         <row r="16">
@@ -900,7 +1406,7 @@
             <v>674</v>
           </cell>
           <cell r="E16" t="str">
-            <v>31/10/2022</v>
+            <v>30/09/2022</v>
           </cell>
         </row>
         <row r="17">
@@ -967,10 +1473,10 @@
             <v>34</v>
           </cell>
           <cell r="D21">
-            <v>552</v>
+            <v>528</v>
           </cell>
           <cell r="E21" t="str">
-            <v>0807 Contrib de Ilum Pub</v>
+            <v>0807 Contrib de Ilum Pub0804 JUROS DE MORA  07/20220805 MULTA  07/20220805 ATUALIZAÇÃO MONETÁRIA  07/2022</v>
           </cell>
         </row>
         <row r="22">
@@ -984,7 +1490,7 @@
             <v>568</v>
           </cell>
           <cell r="E22" t="str">
-            <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+            <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
           </cell>
         </row>
         <row r="23">
@@ -1012,7 +1518,7 @@
             <v>568</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
+            <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
           </cell>
         </row>
         <row r="25">
@@ -1020,13 +1526,13 @@
             <v>4</v>
           </cell>
           <cell r="C25">
-            <v>332</v>
+            <v>304</v>
           </cell>
           <cell r="D25">
-            <v>568</v>
+            <v>528</v>
           </cell>
           <cell r="E25" t="str">
-            <v>Base Calc.ICMS(R$)95,42-95,42374,86-374,867,8567,160,000,00</v>
+            <v>46,1764,16320,8241,51</v>
           </cell>
         </row>
         <row r="26">
@@ -1034,13 +1540,13 @@
             <v>4</v>
           </cell>
           <cell r="C26">
-            <v>366</v>
+            <v>332</v>
           </cell>
           <cell r="D26">
             <v>568</v>
           </cell>
           <cell r="E26" t="str">
-            <v>%Aliq.ICMS181818181818180</v>
+            <v>Base Calc.ICMS(R$)67,28-67,28481,84-481,844,9968,220,000,00</v>
           </cell>
         </row>
         <row r="27">
@@ -1048,13 +1554,13 @@
             <v>4</v>
           </cell>
           <cell r="C27">
-            <v>308</v>
+            <v>366</v>
           </cell>
           <cell r="D27">
-            <v>552</v>
+            <v>568</v>
           </cell>
           <cell r="E27" t="str">
-            <v>46,17</v>
+            <v>%Aliq.ICMS181818181818180</v>
           </cell>
         </row>
         <row r="28">
@@ -1062,13 +1568,13 @@
             <v>4</v>
           </cell>
           <cell r="C28">
-            <v>350</v>
+            <v>400</v>
           </cell>
           <cell r="D28">
-            <v>552</v>
+            <v>568</v>
           </cell>
           <cell r="E28" t="str">
-            <v>0,00</v>
+            <v>ICMS (R$)12,11-12,1186,73-86,730,8912,280,000,00</v>
           </cell>
         </row>
         <row r="29">
@@ -1076,13 +1582,13 @@
             <v>4</v>
           </cell>
           <cell r="C29">
-            <v>376</v>
+            <v>428</v>
           </cell>
           <cell r="D29">
-            <v>552</v>
+            <v>641</v>
           </cell>
           <cell r="E29" t="str">
-            <v>0</v>
+            <v>Base Calc.</v>
           </cell>
         </row>
         <row r="30">
@@ -1090,13 +1596,13 @@
             <v>4</v>
           </cell>
           <cell r="C30">
-            <v>400</v>
+            <v>420</v>
           </cell>
           <cell r="D30">
             <v>568</v>
           </cell>
           <cell r="E30" t="str">
-            <v>ICMS (R$)17,18-17,1867,47-67,471,4112,090,000,00</v>
+            <v>PIS/COFINS (R$)194,92-194,92583,53-583,534,0955,94169,5516.634,38</v>
           </cell>
         </row>
         <row r="31">
@@ -1104,13 +1610,13 @@
             <v>4</v>
           </cell>
           <cell r="C31">
-            <v>405</v>
+            <v>474</v>
           </cell>
           <cell r="D31">
-            <v>552</v>
+            <v>568</v>
           </cell>
           <cell r="E31" t="str">
-            <v>0,00</v>
+            <v>PIS (R$) COFINS(R$)(3,0729%)5,99-5,9917,93-17,930,121,725,21511,16</v>
           </cell>
         </row>
         <row r="32">
@@ -1118,13 +1624,13 @@
             <v>4</v>
           </cell>
           <cell r="C32">
-            <v>428</v>
+            <v>470</v>
           </cell>
           <cell r="D32">
-            <v>641</v>
+            <v>568</v>
           </cell>
           <cell r="E32" t="str">
-            <v>Base Calc.</v>
+            <v>(0,6671%)1,30-1,303,89-3,890,030,371,13110,97</v>
           </cell>
         </row>
         <row r="33">
@@ -1132,13 +1638,13 @@
             <v>4</v>
           </cell>
           <cell r="C33">
-            <v>420</v>
+            <v>350</v>
           </cell>
           <cell r="D33">
-            <v>568</v>
+            <v>528</v>
           </cell>
           <cell r="E33" t="str">
-            <v>PIS/COFINS (R$)276,41-276,41453,99-453,996,4455,07169,5516.634,38</v>
+            <v>0,000,000,000,00</v>
           </cell>
         </row>
         <row r="34">
@@ -1146,13 +1652,13 @@
             <v>4</v>
           </cell>
           <cell r="C34">
-            <v>474</v>
+            <v>376</v>
           </cell>
           <cell r="D34">
-            <v>568</v>
+            <v>528</v>
           </cell>
           <cell r="E34" t="str">
-            <v>PIS (R$) COFINS(R$)(3,0729%)8,49-8,4913,95-13,950,201,695,21511,16</v>
+            <v>0000</v>
           </cell>
         </row>
         <row r="35">
@@ -1160,13 +1666,13 @@
             <v>4</v>
           </cell>
           <cell r="C35">
-            <v>470</v>
+            <v>405</v>
           </cell>
           <cell r="D35">
-            <v>568</v>
+            <v>528</v>
           </cell>
           <cell r="E35" t="str">
-            <v>(0,6671%)1,84-1,843,03-3,030,040,371,13110,97</v>
+            <v>0,000,000,000,00</v>
           </cell>
         </row>
         <row r="36">
@@ -1177,10 +1683,10 @@
             <v>453</v>
           </cell>
           <cell r="D36">
-            <v>552</v>
+            <v>528</v>
           </cell>
           <cell r="E36" t="str">
-            <v>0,00</v>
+            <v>0,000,000,000,00</v>
           </cell>
         </row>
         <row r="37">
@@ -1191,10 +1697,10 @@
             <v>485</v>
           </cell>
           <cell r="D37">
-            <v>552</v>
+            <v>528</v>
           </cell>
           <cell r="E37" t="str">
-            <v>0,00</v>
+            <v>0,000,000,000,00</v>
           </cell>
         </row>
         <row r="38">
@@ -1205,10 +1711,10 @@
             <v>525</v>
           </cell>
           <cell r="D38">
-            <v>552</v>
+            <v>528</v>
           </cell>
           <cell r="E38" t="str">
-            <v>0,00</v>
+            <v>0,000,000,000,00</v>
           </cell>
         </row>
         <row r="39">
@@ -1250,7 +1756,7 @@
             <v>431</v>
           </cell>
           <cell r="E41" t="str">
-            <v>16.925,11</v>
+            <v>17.349,82</v>
           </cell>
         </row>
         <row r="42">
@@ -1264,7 +1770,7 @@
             <v>431</v>
           </cell>
           <cell r="E42" t="str">
-            <v>75,01</v>
+            <v>73,21</v>
           </cell>
         </row>
         <row r="43">
@@ -1278,7 +1784,7 @@
             <v>431</v>
           </cell>
           <cell r="E43" t="str">
-            <v>13,50</v>
+            <v>13,17</v>
           </cell>
         </row>
         <row r="44">
@@ -1292,7 +1798,7 @@
             <v>431</v>
           </cell>
           <cell r="E44" t="str">
-            <v>16.865,44</v>
+            <v>16.863,96</v>
           </cell>
         </row>
         <row r="45">
@@ -1306,7 +1812,7 @@
             <v>431</v>
           </cell>
           <cell r="E45" t="str">
-            <v>112,51</v>
+            <v>112,50</v>
           </cell>
         </row>
         <row r="46">
@@ -1320,7 +1826,7 @@
             <v>431</v>
           </cell>
           <cell r="E46" t="str">
-            <v>518,26</v>
+            <v>518,21</v>
           </cell>
         </row>
         <row r="47">
@@ -1362,7 +1868,7 @@
             <v>333</v>
           </cell>
           <cell r="E49" t="str">
-            <v>VALOR (R$)3.315,117.458,211.534,183.927,17690,440,0016.925,11- Valor Encargo Uso Sist. Distr. (Ref 07/2022): R$15.598,55</v>
+            <v>VALOR (R$)3.314,847.457,571.534,043.926,831.116,540,0017.349,82- Valor Encargo Uso Sist. Distr. (Ref 06/2022): R$13.871,82</v>
           </cell>
         </row>
         <row r="50">
@@ -1390,7 +1896,7 @@
             <v>388</v>
           </cell>
           <cell r="E51" t="str">
-            <v>14/10/2022</v>
+            <v>14/09/2022</v>
           </cell>
         </row>
         <row r="52">
@@ -1404,7 +1910,7 @@
             <v>389</v>
           </cell>
           <cell r="E52" t="str">
-            <v>R$ 16.925,11</v>
+            <v>R$ 17.349,82</v>
           </cell>
         </row>
         <row r="53">
@@ -1418,7 +1924,7 @@
             <v>348</v>
           </cell>
           <cell r="E53" t="str">
-            <v>%19,5944,079,0623,204,080,00100,00</v>
+            <v>%19,1142,988,8422,636,440,00100,00</v>
           </cell>
         </row>
         <row r="54">
@@ -1426,13 +1932,13 @@
             <v>4</v>
           </cell>
           <cell r="C54">
-            <v>269</v>
+            <v>268</v>
           </cell>
           <cell r="D54">
             <v>327</v>
           </cell>
           <cell r="E54" t="str">
-            <v>8b43.8610.de33.d965.0afb.f810.cafc.ee5c</v>
+            <v>379a.f730.e57f.9d87.e4c1.7996.b7e3.3f92</v>
           </cell>
         </row>
         <row r="55">
@@ -1446,7 +1952,7 @@
             <v>263</v>
           </cell>
           <cell r="E55" t="str">
-            <v>00190.00009 03268.923004 42033.164171 6 91380001692511</v>
+            <v>00190.00009 03268.923004 41206.411179 1 91080001734982</v>
           </cell>
         </row>
         <row r="56">
@@ -1530,7 +2036,7 @@
             <v>234</v>
           </cell>
           <cell r="E61" t="str">
-            <v>VENCIMENTO14/10/2022AG./CÓD.BENEFICIÁRIO</v>
+            <v>VENCIMENTO14/09/2022AG./CÓD.BENEFICIÁRIO</v>
           </cell>
         </row>
         <row r="62">
@@ -1628,7 +2134,7 @@
             <v>187</v>
           </cell>
           <cell r="E68" t="str">
-            <v>03/10/2022</v>
+            <v>01/09/2022</v>
           </cell>
         </row>
         <row r="69">
@@ -1670,7 +2176,7 @@
             <v>169</v>
           </cell>
           <cell r="E71" t="str">
-            <v>Nº DOCUMENTO2598964-2022-09-4CARTEIRA17</v>
+            <v>Nº DOCUMENTO2598964-2022-08-6CARTEIRA17</v>
           </cell>
         </row>
         <row r="72">
@@ -1698,7 +2204,7 @@
             <v>187</v>
           </cell>
           <cell r="E73" t="str">
-            <v>DATA DO PROCESSAMENTO03/10/2022</v>
+            <v>DATA DO PROCESSAMENTO01/09/2022</v>
           </cell>
         </row>
         <row r="74">
@@ -1782,7 +2288,7 @@
             <v>32</v>
           </cell>
           <cell r="E79" t="str">
-            <v>(B{SgHeYcQ{B{SsGjXbQvB{B{LiGsSmOcB{DdLi[bFrQh)</v>
+            <v>(B{SgSgQvQ{B{QhUrMmEvB{B{LiGsSmOcB{JdEvFrWdQh)</v>
           </cell>
         </row>
         <row r="80">
@@ -1810,7 +2316,7 @@
             <v>204</v>
           </cell>
           <cell r="E81" t="str">
-            <v>32689230042033164</v>
+            <v>32689230041206411</v>
           </cell>
         </row>
         <row r="82">
@@ -1838,7 +2344,7 @@
             <v>176</v>
           </cell>
           <cell r="E83" t="str">
-            <v>16.925,11(-) DESCONTOS/ ABATIMENTOS</v>
+            <v>17.349,82(-) DESCONTOS/ ABATIMENTOS</v>
           </cell>
         </row>
         <row r="84">
@@ -2034,7 +2540,7 @@
             <v>784</v>
           </cell>
           <cell r="E97" t="str">
-            <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 5(P) 4(FP) A expirar em 10/2022: 0(P) 0(FP)</v>
+            <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 4(P) 4(FP) A expirar em 09/2022: 0(P) 0(FP)</v>
           </cell>
         </row>
         <row r="98">
@@ -2115,10 +2621,10 @@
             <v>66</v>
           </cell>
           <cell r="D103">
-            <v>551</v>
+            <v>558</v>
           </cell>
           <cell r="E103" t="str">
-            <v>CONSUMOFATURADO181,65128,10134,401,0512,6013,653,1598,70465,15</v>
+            <v>CONSUMOFATURADO128,10134,401,0512,6013,653,1598,70465,15</v>
           </cell>
         </row>
         <row r="104">
@@ -2132,7 +2638,7 @@
             <v>520</v>
           </cell>
           <cell r="E104" t="str">
-            <v>MÊS/ANOSET/22AGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21</v>
+            <v>MÊS/ANOAGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21AGO/21</v>
           </cell>
         </row>
         <row r="105">
@@ -2269,10 +2775,10 @@
             <v>113</v>
           </cell>
           <cell r="D114">
-            <v>551</v>
+            <v>558</v>
           </cell>
           <cell r="E114" t="str">
-            <v>4,204,204,204,204,204,204,204,204,20</v>
+            <v>4,204,204,204,204,204,204,204,20</v>
           </cell>
         </row>
         <row r="115">
@@ -2283,7 +2789,7 @@
             <v>110</v>
           </cell>
           <cell r="D115">
-            <v>528</v>
+            <v>536</v>
           </cell>
           <cell r="E115" t="str">
             <v>21,00</v>
@@ -2297,10 +2803,10 @@
             <v>137</v>
           </cell>
           <cell r="D116">
-            <v>536</v>
+            <v>543</v>
           </cell>
           <cell r="E116" t="str">
-            <v>1.159,201.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
+            <v>1.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
           </cell>
         </row>
         <row r="117">
@@ -2311,10 +2817,10 @@
             <v>211</v>
           </cell>
           <cell r="D117">
-            <v>595</v>
+            <v>602</v>
           </cell>
           <cell r="E117" t="str">
-            <v>23,1014,7017,85</v>
+            <v>14,7017,85</v>
           </cell>
         </row>
         <row r="118">
@@ -2325,7 +2831,7 @@
             <v>214</v>
           </cell>
           <cell r="D118">
-            <v>572</v>
+            <v>580</v>
           </cell>
           <cell r="E118" t="str">
             <v>3,153,15</v>
@@ -2339,7 +2845,7 @@
             <v>211</v>
           </cell>
           <cell r="D119">
-            <v>551</v>
+            <v>558</v>
           </cell>
           <cell r="E119" t="str">
             <v>21,0070,35</v>
@@ -2353,10 +2859,10 @@
             <v>180</v>
           </cell>
           <cell r="D120">
-            <v>551</v>
+            <v>558</v>
           </cell>
           <cell r="E120" t="str">
-            <v>8,408,408,408,408,408,404,208,408,40</v>
+            <v>8,408,408,408,408,404,208,408,40</v>
           </cell>
         </row>
         <row r="121">
@@ -2367,7 +2873,7 @@
             <v>178</v>
           </cell>
           <cell r="D121">
-            <v>536</v>
+            <v>543</v>
           </cell>
           <cell r="E121" t="str">
             <v>10,50</v>
@@ -2381,10 +2887,10 @@
             <v>276</v>
           </cell>
           <cell r="D122">
-            <v>551</v>
+            <v>558</v>
           </cell>
           <cell r="E122" t="str">
-            <v>197,40200,55131,254,2045,1543,0529,40142,80732,90</v>
+            <v>200,55131,254,2045,1543,0529,40142,80732,90</v>
           </cell>
         </row>
         <row r="123">
@@ -2398,7 +2904,7 @@
             <v>490</v>
           </cell>
           <cell r="E123" t="str">
-            <v>Leitura Anterior:31/08/2022</v>
+            <v>Leitura Anterior:31/07/2022</v>
           </cell>
         </row>
         <row r="124">
@@ -2412,7 +2918,7 @@
             <v>490</v>
           </cell>
           <cell r="E124" t="str">
-            <v>Leitura Atual:30/09/2022</v>
+            <v>Leitura Atual:31/08/2022</v>
           </cell>
         </row>
         <row r="125">
@@ -2426,7 +2932,7 @@
             <v>490</v>
           </cell>
           <cell r="E125" t="str">
-            <v>Dias: 30</v>
+            <v>Dias: 31</v>
           </cell>
         </row>
         <row r="126">
@@ -2496,7 +3002,7 @@
             <v>387</v>
           </cell>
           <cell r="E130" t="str">
-            <v>Atual0,99286,089,353.274,730,000,010,151,450,010,01</v>
+            <v>Atual0,82275,798,243.019,500,000,010,121,270,010,01</v>
           </cell>
         </row>
         <row r="131">
@@ -2524,7 +3030,7 @@
             <v>387</v>
           </cell>
           <cell r="E132" t="str">
-            <v>Anterior0,82275,798,243.019,500,000,000,121,270,000,00</v>
+            <v>Anterior0,69253,346,822.817,370,000,000,111,080,000,00</v>
           </cell>
         </row>
         <row r="133">
@@ -2622,7 +3128,7 @@
             <v>387</v>
           </cell>
           <cell r="E139" t="str">
-            <v>Dados do consumoMedido181,6510.806,601.159,20267.984,154,208,4023,10197,405,257,35</v>
+            <v>Dados do consumoMedido128,1023.565,151.489,95212.245,954,208,4014,70200,555,257,35</v>
           </cell>
         </row>
         <row r="140">
@@ -2636,7 +3142,7 @@
             <v>387</v>
           </cell>
           <cell r="E140" t="str">
-            <v>Faturado181,65181,651.159,201.159,200,00832,5023,10197,400,000,00</v>
+            <v>Faturado128,10128,101.489,951.489,950,00832,5014,70200,550,000,00</v>
           </cell>
         </row>
         <row r="141">
@@ -2678,7 +3184,7 @@
             <v>478</v>
           </cell>
           <cell r="E143" t="str">
-            <v>0,23</v>
+            <v>0,00</v>
           </cell>
         </row>
         <row r="144">
@@ -2692,7 +3198,7 @@
             <v>457</v>
           </cell>
           <cell r="E144" t="str">
-            <v>1,00</v>
+            <v>0,00</v>
           </cell>
         </row>
         <row r="145">
@@ -2706,7 +3212,7 @@
             <v>438</v>
           </cell>
           <cell r="E145" t="str">
-            <v>0,23</v>
+            <v>0,00</v>
           </cell>
         </row>
         <row r="146">
@@ -2720,7 +3226,7 @@
             <v>399</v>
           </cell>
           <cell r="E146" t="str">
-            <v>EXTREMA07/2022</v>
+            <v>EXTREMA06/2022</v>
           </cell>
         </row>
         <row r="147">
@@ -3023,7 +3529,7 @@
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3573,7 @@
       </c>
       <c r="D2" t="str">
         <f>[1]Sheet1!$E2</f>
-        <v>20:09:28</v>
+        <v>23:16:03</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3663,7 @@
       </c>
       <c r="D7" t="str">
         <f>[1]Sheet1!$E7</f>
-        <v>0002598964-2022-09-4</v>
+        <v>0002598964-2022-08-6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3211,7 +3717,7 @@
       </c>
       <c r="D10" t="str">
         <f>[1]Sheet1!$E10</f>
-        <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.016.131Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
+        <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.015.819Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,7 +3735,7 @@
       </c>
       <c r="D11" t="str">
         <f>[1]Sheet1!$E11</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,7 +3781,7 @@
       </c>
       <c r="B14">
         <f>[1]Sheet1!$C14</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <f>[1]Sheet1!$D14</f>
@@ -3283,7 +3789,7 @@
       </c>
       <c r="D14" t="str">
         <f>[1]Sheet1!$E14</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,7 +3807,7 @@
       </c>
       <c r="D15" t="str">
         <f>[1]Sheet1!$E15</f>
-        <v>06/10/2022</v>
+        <v>06/09/2022</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,7 +3825,7 @@
       </c>
       <c r="D16" t="str">
         <f>[1]Sheet1!$E16</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,11 +3911,11 @@
       </c>
       <c r="C21">
         <f>[1]Sheet1!$D21</f>
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D21" t="str">
         <f>[1]Sheet1!$E21</f>
-        <v>0807 Contrib de Ilum Pub</v>
+        <v>0807 Contrib de Ilum Pub0804 JUROS DE MORA  07/20220805 MULTA  07/20220805 ATUALIZAÇÃO MONETÁRIA  07/2022</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,7 +3933,7 @@
       </c>
       <c r="D22" t="str">
         <f>[1]Sheet1!$E22</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,7 +3969,7 @@
       </c>
       <c r="D24" t="str">
         <f>[1]Sheet1!$E24</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,15 +3979,15 @@
       </c>
       <c r="B25">
         <f>[1]Sheet1!$C25</f>
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C25">
         <f>[1]Sheet1!$D25</f>
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D25" t="str">
         <f>[1]Sheet1!$E25</f>
-        <v>Base Calc.ICMS(R$)95,42-95,42374,86-374,867,8567,160,000,00</v>
+        <v>46,1764,16320,8241,51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,7 +3997,7 @@
       </c>
       <c r="B26">
         <f>[1]Sheet1!$C26</f>
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C26">
         <f>[1]Sheet1!$D26</f>
@@ -3499,7 +4005,7 @@
       </c>
       <c r="D26" t="str">
         <f>[1]Sheet1!$E26</f>
-        <v>%Aliq.ICMS181818181818180</v>
+        <v>Base Calc.ICMS(R$)67,28-67,28481,84-481,844,9968,220,000,00</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,15 +4015,15 @@
       </c>
       <c r="B27">
         <f>[1]Sheet1!$C27</f>
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="C27">
         <f>[1]Sheet1!$D27</f>
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D27" t="str">
         <f>[1]Sheet1!$E27</f>
-        <v>46,17</v>
+        <v>%Aliq.ICMS181818181818180</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,15 +4033,15 @@
       </c>
       <c r="B28">
         <f>[1]Sheet1!$C28</f>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C28">
         <f>[1]Sheet1!$D28</f>
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D28" t="str">
         <f>[1]Sheet1!$E28</f>
-        <v>0,00</v>
+        <v>ICMS (R$)12,11-12,1186,73-86,730,8912,280,000,00</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,15 +4051,15 @@
       </c>
       <c r="B29">
         <f>[1]Sheet1!$C29</f>
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="C29">
         <f>[1]Sheet1!$D29</f>
-        <v>552</v>
+        <v>641</v>
       </c>
       <c r="D29" t="str">
         <f>[1]Sheet1!$E29</f>
-        <v>0</v>
+        <v>Base Calc.</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,7 +4069,7 @@
       </c>
       <c r="B30">
         <f>[1]Sheet1!$C30</f>
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C30">
         <f>[1]Sheet1!$D30</f>
@@ -3571,7 +4077,7 @@
       </c>
       <c r="D30" t="str">
         <f>[1]Sheet1!$E30</f>
-        <v>ICMS (R$)17,18-17,1867,47-67,471,4112,090,000,00</v>
+        <v>PIS/COFINS (R$)194,92-194,92583,53-583,534,0955,94169,5516.634,38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,15 +4087,15 @@
       </c>
       <c r="B31">
         <f>[1]Sheet1!$C31</f>
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="C31">
         <f>[1]Sheet1!$D31</f>
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D31" t="str">
         <f>[1]Sheet1!$E31</f>
-        <v>0,00</v>
+        <v>PIS (R$) COFINS(R$)(3,0729%)5,99-5,9917,93-17,930,121,725,21511,16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,15 +4105,15 @@
       </c>
       <c r="B32">
         <f>[1]Sheet1!$C32</f>
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C32">
         <f>[1]Sheet1!$D32</f>
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="D32" t="str">
         <f>[1]Sheet1!$E32</f>
-        <v>Base Calc.</v>
+        <v>(0,6671%)1,30-1,303,89-3,890,030,371,13110,97</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,15 +4123,15 @@
       </c>
       <c r="B33">
         <f>[1]Sheet1!$C33</f>
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="C33">
         <f>[1]Sheet1!$D33</f>
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D33" t="str">
         <f>[1]Sheet1!$E33</f>
-        <v>PIS/COFINS (R$)276,41-276,41453,99-453,996,4455,07169,5516.634,38</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,15 +4141,15 @@
       </c>
       <c r="B34">
         <f>[1]Sheet1!$C34</f>
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="C34">
         <f>[1]Sheet1!$D34</f>
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D34" t="str">
         <f>[1]Sheet1!$E34</f>
-        <v>PIS (R$) COFINS(R$)(3,0729%)8,49-8,4913,95-13,950,201,695,21511,16</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,15 +4159,15 @@
       </c>
       <c r="B35">
         <f>[1]Sheet1!$C35</f>
-        <v>470</v>
+        <v>405</v>
       </c>
       <c r="C35">
         <f>[1]Sheet1!$D35</f>
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="D35" t="str">
         <f>[1]Sheet1!$E35</f>
-        <v>(0,6671%)1,84-1,843,03-3,030,040,371,13110,97</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,11 +4181,11 @@
       </c>
       <c r="C36">
         <f>[1]Sheet1!$D36</f>
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D36" t="str">
         <f>[1]Sheet1!$E36</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,11 +4199,11 @@
       </c>
       <c r="C37">
         <f>[1]Sheet1!$D37</f>
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D37" t="str">
         <f>[1]Sheet1!$E37</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,11 +4217,11 @@
       </c>
       <c r="C38">
         <f>[1]Sheet1!$D38</f>
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D38" t="str">
         <f>[1]Sheet1!$E38</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,7 +4275,7 @@
       </c>
       <c r="D41" t="str">
         <f>[1]Sheet1!$E41</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,7 +4293,7 @@
       </c>
       <c r="D42" t="str">
         <f>[1]Sheet1!$E42</f>
-        <v>75,01</v>
+        <v>73,21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,7 +4311,7 @@
       </c>
       <c r="D43" t="str">
         <f>[1]Sheet1!$E43</f>
-        <v>13,50</v>
+        <v>13,17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,7 +4329,7 @@
       </c>
       <c r="D44" t="str">
         <f>[1]Sheet1!$E44</f>
-        <v>16.865,44</v>
+        <v>16.863,96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,7 +4347,7 @@
       </c>
       <c r="D45" t="str">
         <f>[1]Sheet1!$E45</f>
-        <v>112,51</v>
+        <v>112,50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,7 +4365,7 @@
       </c>
       <c r="D46" t="str">
         <f>[1]Sheet1!$E46</f>
-        <v>518,26</v>
+        <v>518,21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,7 +4419,7 @@
       </c>
       <c r="D49" t="str">
         <f>[1]Sheet1!$E49</f>
-        <v>VALOR (R$)3.315,117.458,211.534,183.927,17690,440,0016.925,11- Valor Encargo Uso Sist. Distr. (Ref 07/2022): R$15.598,55</v>
+        <v>VALOR (R$)3.314,847.457,571.534,043.926,831.116,540,0017.349,82- Valor Encargo Uso Sist. Distr. (Ref 06/2022): R$13.871,82</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,7 +4455,7 @@
       </c>
       <c r="D51" t="str">
         <f>[1]Sheet1!$E51</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3967,7 +4473,7 @@
       </c>
       <c r="D52" t="str">
         <f>[1]Sheet1!$E52</f>
-        <v>R$ 16.925,11</v>
+        <v>R$ 17.349,82</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,7 +4491,7 @@
       </c>
       <c r="D53" t="str">
         <f>[1]Sheet1!$E53</f>
-        <v>%19,5944,079,0623,204,080,00100,00</v>
+        <v>%19,1142,988,8422,636,440,00100,00</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,7 +4501,7 @@
       </c>
       <c r="B54">
         <f>[1]Sheet1!$C54</f>
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C54">
         <f>[1]Sheet1!$D54</f>
@@ -4003,7 +4509,7 @@
       </c>
       <c r="D54" t="str">
         <f>[1]Sheet1!$E54</f>
-        <v>8b43.8610.de33.d965.0afb.f810.cafc.ee5c</v>
+        <v>379a.f730.e57f.9d87.e4c1.7996.b7e3.3f92</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,7 +4527,7 @@
       </c>
       <c r="D55" t="str">
         <f>[1]Sheet1!$E55</f>
-        <v>00190.00009 03268.923004 42033.164171 6 91380001692511</v>
+        <v>00190.00009 03268.923004 41206.411179 1 91080001734982</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,7 +4635,7 @@
       </c>
       <c r="D61" t="str">
         <f>[1]Sheet1!$E61</f>
-        <v>VENCIMENTO14/10/2022AG./CÓD.BENEFICIÁRIO</v>
+        <v>VENCIMENTO14/09/2022AG./CÓD.BENEFICIÁRIO</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,7 +4761,7 @@
       </c>
       <c r="D68" t="str">
         <f>[1]Sheet1!$E68</f>
-        <v>03/10/2022</v>
+        <v>01/09/2022</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,7 +4815,7 @@
       </c>
       <c r="D71" t="str">
         <f>[1]Sheet1!$E71</f>
-        <v>Nº DOCUMENTO2598964-2022-09-4CARTEIRA17</v>
+        <v>Nº DOCUMENTO2598964-2022-08-6CARTEIRA17</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4345,7 +4851,7 @@
       </c>
       <c r="D73" t="str">
         <f>[1]Sheet1!$E73</f>
-        <v>DATA DO PROCESSAMENTO03/10/2022</v>
+        <v>DATA DO PROCESSAMENTO01/09/2022</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,7 +4959,7 @@
       </c>
       <c r="D79" t="str">
         <f>[1]Sheet1!$E79</f>
-        <v>(B{SgHeYcQ{B{SsGjXbQvB{B{LiGsSmOcB{DdLi[bFrQh)</v>
+        <v>(B{SgSgQvQ{B{QhUrMmEvB{B{LiGsSmOcB{JdEvFrWdQh)</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,7 +4995,7 @@
       </c>
       <c r="D81" t="str">
         <f>[1]Sheet1!$E81</f>
-        <v>32689230042033164</v>
+        <v>32689230041206411</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,7 +5031,7 @@
       </c>
       <c r="D83" t="str">
         <f>[1]Sheet1!$E83</f>
-        <v>16.925,11(-) DESCONTOS/ ABATIMENTOS</v>
+        <v>17.349,82(-) DESCONTOS/ ABATIMENTOS</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,7 +5283,7 @@
       </c>
       <c r="D97" t="str">
         <f>[1]Sheet1!$E97</f>
-        <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 5(P) 4(FP) A expirar em 10/2022: 0(P) 0(FP)</v>
+        <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 4(P) 4(FP) A expirar em 09/2022: 0(P) 0(FP)</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,11 +5387,11 @@
       </c>
       <c r="C103">
         <f>[1]Sheet1!$D103</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D103" t="str">
         <f>[1]Sheet1!$E103</f>
-        <v>CONSUMOFATURADO181,65128,10134,401,0512,6013,653,1598,70465,15</v>
+        <v>CONSUMOFATURADO128,10134,401,0512,6013,653,1598,70465,15</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,7 +5409,7 @@
       </c>
       <c r="D104" t="str">
         <f>[1]Sheet1!$E104</f>
-        <v>MÊS/ANOSET/22AGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21</v>
+        <v>MÊS/ANOAGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21AGO/21</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5079,11 +5585,11 @@
       </c>
       <c r="C114">
         <f>[1]Sheet1!$D114</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D114" t="str">
         <f>[1]Sheet1!$E114</f>
-        <v>4,204,204,204,204,204,204,204,204,20</v>
+        <v>4,204,204,204,204,204,204,204,20</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,7 +5603,7 @@
       </c>
       <c r="C115">
         <f>[1]Sheet1!$D115</f>
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D115" t="str">
         <f>[1]Sheet1!$E115</f>
@@ -5115,11 +5621,11 @@
       </c>
       <c r="C116">
         <f>[1]Sheet1!$D116</f>
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D116" t="str">
         <f>[1]Sheet1!$E116</f>
-        <v>1.159,201.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
+        <v>1.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,11 +5639,11 @@
       </c>
       <c r="C117">
         <f>[1]Sheet1!$D117</f>
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D117" t="str">
         <f>[1]Sheet1!$E117</f>
-        <v>23,1014,7017,85</v>
+        <v>14,7017,85</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,7 +5657,7 @@
       </c>
       <c r="C118">
         <f>[1]Sheet1!$D118</f>
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D118" t="str">
         <f>[1]Sheet1!$E118</f>
@@ -5169,7 +5675,7 @@
       </c>
       <c r="C119">
         <f>[1]Sheet1!$D119</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D119" t="str">
         <f>[1]Sheet1!$E119</f>
@@ -5187,11 +5693,11 @@
       </c>
       <c r="C120">
         <f>[1]Sheet1!$D120</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D120" t="str">
         <f>[1]Sheet1!$E120</f>
-        <v>8,408,408,408,408,408,404,208,408,40</v>
+        <v>8,408,408,408,408,404,208,408,40</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,7 +5711,7 @@
       </c>
       <c r="C121">
         <f>[1]Sheet1!$D121</f>
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D121" t="str">
         <f>[1]Sheet1!$E121</f>
@@ -5223,11 +5729,11 @@
       </c>
       <c r="C122">
         <f>[1]Sheet1!$D122</f>
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D122" t="str">
         <f>[1]Sheet1!$E122</f>
-        <v>197,40200,55131,254,2045,1543,0529,40142,80732,90</v>
+        <v>200,55131,254,2045,1543,0529,40142,80732,90</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,7 +5751,7 @@
       </c>
       <c r="D123" t="str">
         <f>[1]Sheet1!$E123</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,7 +5769,7 @@
       </c>
       <c r="D124" t="str">
         <f>[1]Sheet1!$E124</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,7 +5787,7 @@
       </c>
       <c r="D125" t="str">
         <f>[1]Sheet1!$E125</f>
-        <v>Dias: 30</v>
+        <v>Dias: 31</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,7 +5877,7 @@
       </c>
       <c r="D130" t="str">
         <f>[1]Sheet1!$E130</f>
-        <v>Atual0,99286,089,353.274,730,000,010,151,450,010,01</v>
+        <v>Atual0,82275,798,243.019,500,000,010,121,270,010,01</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,7 +5913,7 @@
       </c>
       <c r="D132" t="str">
         <f>[1]Sheet1!$E132</f>
-        <v>Anterior0,82275,798,243.019,500,000,000,121,270,000,00</v>
+        <v>Anterior0,69253,346,822.817,370,000,000,111,080,000,00</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,7 +6039,7 @@
       </c>
       <c r="D139" t="str">
         <f>[1]Sheet1!$E139</f>
-        <v>Dados do consumoMedido181,6510.806,601.159,20267.984,154,208,4023,10197,405,257,35</v>
+        <v>Dados do consumoMedido128,1023.565,151.489,95212.245,954,208,4014,70200,555,257,35</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,7 +6057,7 @@
       </c>
       <c r="D140" t="str">
         <f>[1]Sheet1!$E140</f>
-        <v>Faturado181,65181,651.159,201.159,200,00832,5023,10197,400,000,00</v>
+        <v>Faturado128,10128,101.489,951.489,950,00832,5014,70200,550,000,00</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5605,7 +6111,7 @@
       </c>
       <c r="D143" t="str">
         <f>[1]Sheet1!$E143</f>
-        <v>0,23</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,7 +6129,7 @@
       </c>
       <c r="D144" t="str">
         <f>[1]Sheet1!$E144</f>
-        <v>1,00</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,7 +6147,7 @@
       </c>
       <c r="D145" t="str">
         <f>[1]Sheet1!$E145</f>
-        <v>0,23</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,7 +6165,7 @@
       </c>
       <c r="D146" t="str">
         <f>[1]Sheet1!$E146</f>
-        <v>EXTREMA07/2022</v>
+        <v>EXTREMA06/2022</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -6644,7 +7150,7 @@
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,7 +7238,7 @@
       </c>
       <c r="C6" t="str">
         <f>raw!D7</f>
-        <v>0002598964-2022-09-4</v>
+        <v>0002598964-2022-08-6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,7 +7280,7 @@
       </c>
       <c r="C9" t="str">
         <f>raw!D10</f>
-        <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.016.131Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
+        <v>ENERGISA SUL-SUDESTE - DISTRIBUIDORA DE ENERGIA S.A.Rua Capitão Soares, 667, CENTROCAMBUI - MG CEP 37600-000CNPJ 07.282.377/0081-04     Insc. Est. 002522747.04-56Nota Fiscal/Conta de Energia ElétricaSérie: B1   NF: 000.015.819Reimpressão da NF/CEE, nos termos do Regime Especial/PTA nº45.000015601-58 - SEF/MG</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6788,7 +7294,7 @@
       </c>
       <c r="C10" t="str">
         <f>raw!D11</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6826,11 +7332,11 @@
       </c>
       <c r="B13" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B14,raw!C14)</f>
-        <v>46674</v>
+        <v>54674</v>
       </c>
       <c r="C13" t="str">
         <f>raw!D14</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6844,7 +7350,7 @@
       </c>
       <c r="C14" t="str">
         <f>raw!D15</f>
-        <v>06/10/2022</v>
+        <v>06/09/2022</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,7 +7364,7 @@
       </c>
       <c r="C15" t="str">
         <f>raw!D16</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6924,11 +7430,11 @@
       </c>
       <c r="B20" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B21,raw!C21)</f>
-        <v>34552</v>
+        <v>34528</v>
       </c>
       <c r="C20" t="str">
         <f>raw!D21</f>
-        <v>0807 Contrib de Ilum Pub</v>
+        <v>0807 Contrib de Ilum Pub0804 JUROS DE MORA  07/20220805 MULTA  07/20220805 ATUALIZAÇÃO MONETÁRIA  07/2022</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6942,7 +7448,7 @@
       </c>
       <c r="C21" t="str">
         <f>raw!D22</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,7 +7476,7 @@
       </c>
       <c r="C23" t="str">
         <f>raw!D24</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,11 +7486,11 @@
       </c>
       <c r="B24" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B25,raw!C25)</f>
-        <v>332568</v>
+        <v>304528</v>
       </c>
       <c r="C24" t="str">
         <f>raw!D25</f>
-        <v>Base Calc.ICMS(R$)95,42-95,42374,86-374,867,8567,160,000,00</v>
+        <v>46,1764,16320,8241,51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6994,11 +7500,11 @@
       </c>
       <c r="B25" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B26,raw!C26)</f>
-        <v>366568</v>
+        <v>332568</v>
       </c>
       <c r="C25" t="str">
         <f>raw!D26</f>
-        <v>%Aliq.ICMS181818181818180</v>
+        <v>Base Calc.ICMS(R$)67,28-67,28481,84-481,844,9968,220,000,00</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7008,11 +7514,11 @@
       </c>
       <c r="B26" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B27,raw!C27)</f>
-        <v>308552</v>
+        <v>366568</v>
       </c>
       <c r="C26" t="str">
         <f>raw!D27</f>
-        <v>46,17</v>
+        <v>%Aliq.ICMS181818181818180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7022,11 +7528,11 @@
       </c>
       <c r="B27" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B28,raw!C28)</f>
-        <v>350552</v>
+        <v>400568</v>
       </c>
       <c r="C27" t="str">
         <f>raw!D28</f>
-        <v>0,00</v>
+        <v>ICMS (R$)12,11-12,1186,73-86,730,8912,280,000,00</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7036,11 +7542,11 @@
       </c>
       <c r="B28" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B29,raw!C29)</f>
-        <v>376552</v>
+        <v>428641</v>
       </c>
       <c r="C28" t="str">
         <f>raw!D29</f>
-        <v>0</v>
+        <v>Base Calc.</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7050,11 +7556,11 @@
       </c>
       <c r="B29" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B30,raw!C30)</f>
-        <v>400568</v>
+        <v>420568</v>
       </c>
       <c r="C29" t="str">
         <f>raw!D30</f>
-        <v>ICMS (R$)17,18-17,1867,47-67,471,4112,090,000,00</v>
+        <v>PIS/COFINS (R$)194,92-194,92583,53-583,534,0955,94169,5516.634,38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,11 +7570,11 @@
       </c>
       <c r="B30" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B31,raw!C31)</f>
-        <v>405552</v>
+        <v>474568</v>
       </c>
       <c r="C30" t="str">
         <f>raw!D31</f>
-        <v>0,00</v>
+        <v>PIS (R$) COFINS(R$)(3,0729%)5,99-5,9917,93-17,930,121,725,21511,16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7078,11 +7584,11 @@
       </c>
       <c r="B31" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B32,raw!C32)</f>
-        <v>428641</v>
+        <v>470568</v>
       </c>
       <c r="C31" t="str">
         <f>raw!D32</f>
-        <v>Base Calc.</v>
+        <v>(0,6671%)1,30-1,303,89-3,890,030,371,13110,97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7092,11 +7598,11 @@
       </c>
       <c r="B32" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B33,raw!C33)</f>
-        <v>420568</v>
+        <v>350528</v>
       </c>
       <c r="C32" t="str">
         <f>raw!D33</f>
-        <v>PIS/COFINS (R$)276,41-276,41453,99-453,996,4455,07169,5516.634,38</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,11 +7612,11 @@
       </c>
       <c r="B33" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B34,raw!C34)</f>
-        <v>474568</v>
+        <v>376528</v>
       </c>
       <c r="C33" t="str">
         <f>raw!D34</f>
-        <v>PIS (R$) COFINS(R$)(3,0729%)8,49-8,4913,95-13,950,201,695,21511,16</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7120,11 +7626,11 @@
       </c>
       <c r="B34" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B35,raw!C35)</f>
-        <v>470568</v>
+        <v>405528</v>
       </c>
       <c r="C34" t="str">
         <f>raw!D35</f>
-        <v>(0,6671%)1,84-1,843,03-3,030,040,371,13110,97</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,11 +7640,11 @@
       </c>
       <c r="B35" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B36,raw!C36)</f>
-        <v>453552</v>
+        <v>453528</v>
       </c>
       <c r="C35" t="str">
         <f>raw!D36</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,11 +7654,11 @@
       </c>
       <c r="B36" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B37,raw!C37)</f>
-        <v>485552</v>
+        <v>485528</v>
       </c>
       <c r="C36" t="str">
         <f>raw!D37</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7162,11 +7668,11 @@
       </c>
       <c r="B37" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B38,raw!C38)</f>
-        <v>525552</v>
+        <v>525528</v>
       </c>
       <c r="C37" t="str">
         <f>raw!D38</f>
-        <v>0,00</v>
+        <v>0,000,000,000,00</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7208,7 +7714,7 @@
       </c>
       <c r="C40" t="str">
         <f>raw!D41</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,7 +7728,7 @@
       </c>
       <c r="C41" t="str">
         <f>raw!D42</f>
-        <v>75,01</v>
+        <v>73,21</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7236,7 +7742,7 @@
       </c>
       <c r="C42" t="str">
         <f>raw!D43</f>
-        <v>13,50</v>
+        <v>13,17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7250,7 +7756,7 @@
       </c>
       <c r="C43" t="str">
         <f>raw!D44</f>
-        <v>16.865,44</v>
+        <v>16.863,96</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7264,7 +7770,7 @@
       </c>
       <c r="C44" t="str">
         <f>raw!D45</f>
-        <v>112,51</v>
+        <v>112,50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7278,7 +7784,7 @@
       </c>
       <c r="C45" t="str">
         <f>raw!D46</f>
-        <v>518,26</v>
+        <v>518,21</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,7 +7826,7 @@
       </c>
       <c r="C48" t="str">
         <f>raw!D49</f>
-        <v>VALOR (R$)3.315,117.458,211.534,183.927,17690,440,0016.925,11- Valor Encargo Uso Sist. Distr. (Ref 07/2022): R$15.598,55</v>
+        <v>VALOR (R$)3.314,847.457,571.534,043.926,831.116,540,0017.349,82- Valor Encargo Uso Sist. Distr. (Ref 06/2022): R$13.871,82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7348,7 +7854,7 @@
       </c>
       <c r="C50" t="str">
         <f>raw!D51</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7362,7 +7868,7 @@
       </c>
       <c r="C51" t="str">
         <f>raw!D52</f>
-        <v>R$ 16.925,11</v>
+        <v>R$ 17.349,82</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,7 +7882,7 @@
       </c>
       <c r="C52" t="str">
         <f>raw!D53</f>
-        <v>%19,5944,079,0623,204,080,00100,00</v>
+        <v>%19,1142,988,8422,636,440,00100,00</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,11 +7892,11 @@
       </c>
       <c r="B53" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B54,raw!C54)</f>
-        <v>269327</v>
+        <v>268327</v>
       </c>
       <c r="C53" t="str">
         <f>raw!D54</f>
-        <v>8b43.8610.de33.d965.0afb.f810.cafc.ee5c</v>
+        <v>379a.f730.e57f.9d87.e4c1.7996.b7e3.3f92</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7404,7 +7910,7 @@
       </c>
       <c r="C54" t="str">
         <f>raw!D55</f>
-        <v>00190.00009 03268.923004 42033.164171 6 91380001692511</v>
+        <v>00190.00009 03268.923004 41206.411179 1 91080001734982</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7488,7 +7994,7 @@
       </c>
       <c r="C60" t="str">
         <f>raw!D61</f>
-        <v>VENCIMENTO14/10/2022AG./CÓD.BENEFICIÁRIO</v>
+        <v>VENCIMENTO14/09/2022AG./CÓD.BENEFICIÁRIO</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7586,7 +8092,7 @@
       </c>
       <c r="C67" t="str">
         <f>raw!D68</f>
-        <v>03/10/2022</v>
+        <v>01/09/2022</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,7 +8134,7 @@
       </c>
       <c r="C70" t="str">
         <f>raw!D71</f>
-        <v>Nº DOCUMENTO2598964-2022-09-4CARTEIRA17</v>
+        <v>Nº DOCUMENTO2598964-2022-08-6CARTEIRA17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,7 +8162,7 @@
       </c>
       <c r="C72" t="str">
         <f>raw!D73</f>
-        <v>DATA DO PROCESSAMENTO03/10/2022</v>
+        <v>DATA DO PROCESSAMENTO01/09/2022</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7740,7 +8246,7 @@
       </c>
       <c r="C78" t="str">
         <f>raw!D79</f>
-        <v>(B{SgHeYcQ{B{SsGjXbQvB{B{LiGsSmOcB{DdLi[bFrQh)</v>
+        <v>(B{SgSgQvQ{B{QhUrMmEvB{B{LiGsSmOcB{JdEvFrWdQh)</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7768,7 +8274,7 @@
       </c>
       <c r="C80" t="str">
         <f>raw!D81</f>
-        <v>32689230042033164</v>
+        <v>32689230041206411</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7796,7 +8302,7 @@
       </c>
       <c r="C82" t="str">
         <f>raw!D83</f>
-        <v>16.925,11(-) DESCONTOS/ ABATIMENTOS</v>
+        <v>17.349,82(-) DESCONTOS/ ABATIMENTOS</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,7 +8498,7 @@
       </c>
       <c r="C96" t="str">
         <f>raw!D97</f>
-        <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 5(P) 4(FP) A expirar em 10/2022: 0(P) 0(FP)</v>
+        <v>UC com Mini Geração conforme REH 482/2012Saldo Ac: 4(P) 4(FP) A expirar em 09/2022: 0(P) 0(FP)</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8072,11 +8578,11 @@
       </c>
       <c r="B102" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B103,raw!C103)</f>
-        <v>66551</v>
+        <v>66558</v>
       </c>
       <c r="C102" t="str">
         <f>raw!D103</f>
-        <v>CONSUMOFATURADO181,65128,10134,401,0512,6013,653,1598,70465,15</v>
+        <v>CONSUMOFATURADO128,10134,401,0512,6013,653,1598,70465,15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,7 +8596,7 @@
       </c>
       <c r="C103" t="str">
         <f>raw!D104</f>
-        <v>MÊS/ANOSET/22AGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21</v>
+        <v>MÊS/ANOAGO/22JUL/22JUN/22MAI/22ABR/22MAR/22FEV/22JAN/22DEZ/21NOV/21OUT/21SET/21AGO/21</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,11 +8732,11 @@
       </c>
       <c r="B113" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B114,raw!C114)</f>
-        <v>113551</v>
+        <v>113558</v>
       </c>
       <c r="C113" t="str">
         <f>raw!D114</f>
-        <v>4,204,204,204,204,204,204,204,204,20</v>
+        <v>4,204,204,204,204,204,204,204,20</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -8240,7 +8746,7 @@
       </c>
       <c r="B114" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B115,raw!C115)</f>
-        <v>110528</v>
+        <v>110536</v>
       </c>
       <c r="C114" t="str">
         <f>raw!D115</f>
@@ -8254,11 +8760,11 @@
       </c>
       <c r="B115" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B116,raw!C116)</f>
-        <v>137536</v>
+        <v>137543</v>
       </c>
       <c r="C115" t="str">
         <f>raw!D116</f>
-        <v>1.159,201.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
+        <v>1.489,951.000,6517,85164,85205,80152,25704,551.769,251.050,002.100,00</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -8268,11 +8774,11 @@
       </c>
       <c r="B116" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B117,raw!C117)</f>
-        <v>211595</v>
+        <v>211602</v>
       </c>
       <c r="C116" t="str">
         <f>raw!D117</f>
-        <v>23,1014,7017,85</v>
+        <v>14,7017,85</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,7 +8788,7 @@
       </c>
       <c r="B117" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B118,raw!C118)</f>
-        <v>214572</v>
+        <v>214580</v>
       </c>
       <c r="C117" t="str">
         <f>raw!D118</f>
@@ -8296,7 +8802,7 @@
       </c>
       <c r="B118" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B119,raw!C119)</f>
-        <v>211551</v>
+        <v>211558</v>
       </c>
       <c r="C118" t="str">
         <f>raw!D119</f>
@@ -8310,11 +8816,11 @@
       </c>
       <c r="B119" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B120,raw!C120)</f>
-        <v>180551</v>
+        <v>180558</v>
       </c>
       <c r="C119" t="str">
         <f>raw!D120</f>
-        <v>8,408,408,408,408,408,404,208,408,40</v>
+        <v>8,408,408,408,408,404,208,408,40</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -8324,7 +8830,7 @@
       </c>
       <c r="B120" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B121,raw!C121)</f>
-        <v>178536</v>
+        <v>178543</v>
       </c>
       <c r="C120" t="str">
         <f>raw!D121</f>
@@ -8338,11 +8844,11 @@
       </c>
       <c r="B121" s="3" t="str">
         <f>_xlfn.CONCAT(raw!B122,raw!C122)</f>
-        <v>276551</v>
+        <v>276558</v>
       </c>
       <c r="C121" t="str">
         <f>raw!D122</f>
-        <v>197,40200,55131,254,2045,1543,0529,40142,80732,90</v>
+        <v>200,55131,254,2045,1543,0529,40142,80732,90</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -8356,7 +8862,7 @@
       </c>
       <c r="C122" t="str">
         <f>raw!D123</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,7 +8876,7 @@
       </c>
       <c r="C123" t="str">
         <f>raw!D124</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -8384,7 +8890,7 @@
       </c>
       <c r="C124" t="str">
         <f>raw!D125</f>
-        <v>Dias: 30</v>
+        <v>Dias: 31</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -8454,7 +8960,7 @@
       </c>
       <c r="C129" t="str">
         <f>raw!D130</f>
-        <v>Atual0,99286,089,353.274,730,000,010,151,450,010,01</v>
+        <v>Atual0,82275,798,243.019,500,000,010,121,270,010,01</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -8482,7 +8988,7 @@
       </c>
       <c r="C131" t="str">
         <f>raw!D132</f>
-        <v>Anterior0,82275,798,243.019,500,000,000,121,270,000,00</v>
+        <v>Anterior0,69253,346,822.817,370,000,000,111,080,000,00</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -8580,7 +9086,7 @@
       </c>
       <c r="C138" t="str">
         <f>raw!D139</f>
-        <v>Dados do consumoMedido181,6510.806,601.159,20267.984,154,208,4023,10197,405,257,35</v>
+        <v>Dados do consumoMedido128,1023.565,151.489,95212.245,954,208,4014,70200,555,257,35</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -8594,7 +9100,7 @@
       </c>
       <c r="C139" t="str">
         <f>raw!D140</f>
-        <v>Faturado181,65181,651.159,201.159,200,00832,5023,10197,400,000,00</v>
+        <v>Faturado128,10128,101.489,951.489,950,00832,5014,70200,550,000,00</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -8636,7 +9142,7 @@
       </c>
       <c r="C142" t="str">
         <f>raw!D143</f>
-        <v>0,23</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -8650,7 +9156,7 @@
       </c>
       <c r="C143" t="str">
         <f>raw!D144</f>
-        <v>1,00</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -8664,7 +9170,7 @@
       </c>
       <c r="C144" t="str">
         <f>raw!D145</f>
-        <v>0,23</v>
+        <v>0,00</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,7 +9184,7 @@
       </c>
       <c r="C145" t="str">
         <f>raw!D146</f>
-        <v>EXTREMA07/2022</v>
+        <v>EXTREMA06/2022</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,7 +9939,7 @@
   <dimension ref="A1:AD262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="E3:W22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9454,19 +9960,19 @@
   <sheetData>
     <row r="1" spans="1:30" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="X1" s="23"/>
       <c r="Y1" s="14" t="s">
@@ -9499,12 +10005,12 @@
       </c>
       <c r="AA2" s="16" t="str">
         <f>raw!D2</f>
-        <v>20:09:28</v>
+        <v>23:16:03</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2">
         <v>110</v>
@@ -9607,7 +10113,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>220</v>
@@ -9714,7 +10220,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>184</v>
@@ -9812,12 +10318,12 @@
       </c>
       <c r="Z5" s="52"/>
       <c r="AA5" s="22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2">
         <v>40</v>
@@ -10028,7 +10534,7 @@
     </row>
     <row r="8" spans="1:30" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B8" s="47">
         <v>40</v>
@@ -10347,7 +10853,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2">
         <v>365</v>
@@ -10866,7 +11372,7 @@
     </row>
     <row r="16" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" s="15">
         <v>272</v>
@@ -10967,12 +11473,12 @@
         <v>CONSUMO</v>
       </c>
       <c r="AA16" s="57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Z17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10985,7 +11491,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Z18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10998,7 +11504,7 @@
     </row>
     <row r="19" spans="1:27" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B19" s="40">
         <v>347</v>
@@ -11102,7 +11608,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -11115,7 +11621,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Z21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -11128,7 +11634,7 @@
     </row>
     <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B22" s="15">
         <v>391</v>
@@ -11229,12 +11735,12 @@
         <v>VALOR (Consumo x Tarifa)</v>
       </c>
       <c r="AA22" s="57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f t="shared" si="2"/>
@@ -11247,7 +11753,7 @@
     </row>
     <row r="24" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
@@ -11266,7 +11772,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>394</v>
@@ -11367,12 +11873,12 @@
         <v>Impostos</v>
       </c>
       <c r="AA25" s="58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="6" t="str">
         <f>A26</f>
@@ -11385,7 +11891,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Z27" s="6" t="str">
         <f>A27</f>
@@ -11398,7 +11904,7 @@
     </row>
     <row r="28" spans="1:27" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B28" s="8">
         <v>519</v>
@@ -12906,12 +13412,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D64057-3231-42AA-90FC-495939BB8C03}">
-  <dimension ref="A1:AJ274"/>
+  <dimension ref="A1:AR291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12925,7 +13431,7 @@
     <col min="25" max="25" width="11.85546875" style="3" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" style="3" customWidth="1"/>
     <col min="27" max="27" width="42.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22.7109375" style="3" customWidth="1"/>
     <col min="30" max="30" width="41" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="9.140625" style="3"/>
@@ -12933,33 +13439,35 @@
     <col min="34" max="34" width="9.140625" style="3"/>
     <col min="35" max="35" width="42.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="3"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AA1" s="17" t="str">
-        <f t="shared" ref="AA1:AA37" si="0">A1</f>
+        <f t="shared" ref="AA1:AA54" si="0">A1</f>
         <v>Name</v>
       </c>
       <c r="AB1" s="30" t="s">
@@ -12967,7 +13475,7 @@
       </c>
       <c r="AC1" s="31"/>
     </row>
-    <row r="2" spans="1:36" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>11</v>
       </c>
@@ -12983,12 +13491,12 @@
       </c>
       <c r="AB2" s="53" t="str">
         <f>raw!D2</f>
-        <v>20:09:28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+        <v>23:16:03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2">
         <v>46</v>
@@ -12996,89 +13504,89 @@
       <c r="C3" s="7">
         <v>674</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="3" t="e">
         <f>VLOOKUP($B3&amp;$C3,concat!$B$2:$C$200,2,0)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="E3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="3" t="e">
         <f>IF(ISNA(D3),VLOOKUP($B3-1&amp;$C3,concat!$B$2:$C$200,2,0),D3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="F3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="3" t="e">
         <f>IF(ISNA(E3),VLOOKUP($B3+1&amp;$C3,concat!$B$2:$C$200,2,0),E3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="G3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" s="3" t="e">
         <f>IF(ISNA(F3),VLOOKUP($B3-2&amp;$C3,concat!$B$2:$C$200,2,0),F3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="H3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="3" t="e">
         <f>IF(ISNA(G3),VLOOKUP($B3+2&amp;$C3,concat!$B$2:$C$200,2,0),G3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="I3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="3" t="e">
         <f>IF(ISNA(H3),VLOOKUP($B3-3&amp;$C3,concat!$B$2:$C$200,2,0),H3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="J3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" s="3" t="e">
         <f>IF(ISNA(I3),VLOOKUP($B3+3&amp;$C3,concat!$B$2:$C$200,2,0),I3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="K3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="3" t="e">
         <f>IF(ISNA(J3),VLOOKUP($B3-4&amp;$C3,concat!$B$2:$C$200,2,0),J3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="L3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="3" t="e">
         <f>IF(ISNA(K3),VLOOKUP($B3+4&amp;$C3,concat!$B$2:$C$200,2,0),K3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="M3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="3" t="e">
         <f>IF(ISNA(L3),VLOOKUP($B3-5&amp;$C3,concat!$B$2:$C$200,2,0),L3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="N3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" s="3" t="e">
         <f>IF(ISNA(M3),VLOOKUP($B3+5&amp;$C3,concat!$B$2:$C$200,2,0),M3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="O3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="3" t="e">
         <f>IF(ISNA(N3),VLOOKUP($B3-6&amp;$C3,concat!$B$2:$C$200,2,0),N3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="P3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="3" t="e">
         <f>IF(ISNA(O3),VLOOKUP($B3+6&amp;$C3,concat!$B$2:$C$200,2,0),O3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="Q3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="3" t="e">
         <f>IF(ISNA(P3),VLOOKUP($B3-7&amp;$C3,concat!$B$2:$C$200,2,0),P3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="R3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="R3" s="3" t="e">
         <f>IF(ISNA(Q3),VLOOKUP($B3+7&amp;$C3,concat!$B$2:$C$200,2,0),Q3)</f>
-        <v>Setembro/2022</v>
-      </c>
-      <c r="S3" s="3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" s="3" t="e">
         <f>IF(ISNA(R3),VLOOKUP($B3-8&amp;$C3,concat!$B$2:$C$200,2,0),R3)</f>
-        <v>Setembro/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="T3" s="3" t="str">
         <f>IF(ISNA(S3),VLOOKUP($B3+8&amp;$C3,concat!$B$2:$C$200,2,0),S3)</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
       <c r="U3" s="3" t="str">
         <f>IF(ISNA(T3),VLOOKUP($B3+9&amp;$C3,concat!$B$2:$C$200,2,0),T3)</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
       <c r="V3" s="3" t="str">
         <f>IF(ISNA(U3),VLOOKUP($B3-9&amp;$C3,concat!$B$2:$C$200,2,0),U3)</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
       <c r="W3" s="3" t="str">
         <f>IF(ISNA(V3),VLOOKUP($B3-10&amp;$C3,concat!$B$2:$C$200,2,0),V3)</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IF(ISNA(W3),VLOOKUP($B3+10&amp;$C3,concat!$B$2:$C$200,2,0),W3)</f>
-        <v>Setembro/2022</v>
+        <v>Agosto/2022</v>
       </c>
       <c r="AA3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13086,10 +13594,10 @@
       </c>
       <c r="AB3" s="17" t="str">
         <f t="shared" ref="AB3:AB9" si="1">X3</f>
-        <v>Setembro/2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>Agosto/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -13101,87 +13609,87 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP($B4&amp;$C4,concat!$B$2:$C$200,2,0)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>IF(ISNA(D4),VLOOKUP($B4-1&amp;$C4,concat!$B$2:$C$200,2,0),D4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISNA(E4),VLOOKUP($B4+1&amp;$C4,concat!$B$2:$C$200,2,0),E4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>IF(ISNA(F4),VLOOKUP($B4-2&amp;$C4,concat!$B$2:$C$200,2,0),F4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>IF(ISNA(G4),VLOOKUP($B4+2&amp;$C4,concat!$B$2:$C$200,2,0),G4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(ISNA(H4),VLOOKUP($B4-3&amp;$C4,concat!$B$2:$C$200,2,0),H4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>IF(ISNA(I4),VLOOKUP($B4+3&amp;$C4,concat!$B$2:$C$200,2,0),I4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>IF(ISNA(J4),VLOOKUP($B4-4&amp;$C4,concat!$B$2:$C$200,2,0),J4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="L4" s="3" t="str">
         <f>IF(ISNA(K4),VLOOKUP($B4+4&amp;$C4,concat!$B$2:$C$200,2,0),K4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="M4" s="3" t="str">
         <f>IF(ISNA(L4),VLOOKUP($B4-5&amp;$C4,concat!$B$2:$C$200,2,0),L4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="N4" s="3" t="str">
         <f>IF(ISNA(M4),VLOOKUP($B4+5&amp;$C4,concat!$B$2:$C$200,2,0),M4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="O4" s="3" t="str">
         <f>IF(ISNA(N4),VLOOKUP($B4-6&amp;$C4,concat!$B$2:$C$200,2,0),N4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="P4" s="3" t="str">
         <f>IF(ISNA(O4),VLOOKUP($B4+6&amp;$C4,concat!$B$2:$C$200,2,0),O4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="Q4" s="3" t="str">
         <f>IF(ISNA(P4),VLOOKUP($B4-7&amp;$C4,concat!$B$2:$C$200,2,0),P4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="R4" s="3" t="str">
         <f>IF(ISNA(Q4),VLOOKUP($B4+7&amp;$C4,concat!$B$2:$C$200,2,0),Q4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="S4" s="3" t="str">
         <f>IF(ISNA(R4),VLOOKUP($B4-8&amp;$C4,concat!$B$2:$C$200,2,0),R4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="T4" s="3" t="str">
         <f>IF(ISNA(S4),VLOOKUP($B4+8&amp;$C4,concat!$B$2:$C$200,2,0),S4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="U4" s="3" t="str">
         <f>IF(ISNA(T4),VLOOKUP($B4+9&amp;$C4,concat!$B$2:$C$200,2,0),T4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="V4" s="3" t="str">
         <f>IF(ISNA(U4),VLOOKUP($B4-9&amp;$C4,concat!$B$2:$C$200,2,0),U4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="W4" s="3" t="str">
         <f>IF(ISNA(V4),VLOOKUP($B4-10&amp;$C4,concat!$B$2:$C$200,2,0),V4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IF(ISNA(W4),VLOOKUP($B4+10&amp;$C4,concat!$B$2:$C$200,2,0),W4)</f>
-        <v>14/10/2022</v>
+        <v>14/09/2022</v>
       </c>
       <c r="AA4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13189,15 +13697,12 @@
       </c>
       <c r="AB4" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>14/10/2022</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14/09/2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2">
         <v>189</v>
@@ -13207,91 +13712,91 @@
       </c>
       <c r="D5" s="3" t="str">
         <f>VLOOKUP($B5&amp;$C5,concat!$B$2:$C$200,2,0)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>IF(ISNA(D5),VLOOKUP($B5-1&amp;$C5,concat!$B$2:$C$200,2,0),D5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISNA(E5),VLOOKUP($B5+1&amp;$C5,concat!$B$2:$C$200,2,0),E5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>IF(ISNA(F5),VLOOKUP($B5-2&amp;$C5,concat!$B$2:$C$200,2,0),F5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>IF(ISNA(G5),VLOOKUP($B5+2&amp;$C5,concat!$B$2:$C$200,2,0),G5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>IF(ISNA(H5),VLOOKUP($B5-3&amp;$C5,concat!$B$2:$C$200,2,0),H5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>IF(ISNA(I5),VLOOKUP($B5+3&amp;$C5,concat!$B$2:$C$200,2,0),I5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>IF(ISNA(J5),VLOOKUP($B5-4&amp;$C5,concat!$B$2:$C$200,2,0),J5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="L5" s="3" t="str">
         <f>IF(ISNA(K5),VLOOKUP($B5+4&amp;$C5,concat!$B$2:$C$200,2,0),K5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="M5" s="3" t="str">
         <f>IF(ISNA(L5),VLOOKUP($B5-5&amp;$C5,concat!$B$2:$C$200,2,0),L5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="N5" s="3" t="str">
         <f>IF(ISNA(M5),VLOOKUP($B5+5&amp;$C5,concat!$B$2:$C$200,2,0),M5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="O5" s="3" t="str">
         <f>IF(ISNA(N5),VLOOKUP($B5-6&amp;$C5,concat!$B$2:$C$200,2,0),N5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="P5" s="3" t="str">
         <f>IF(ISNA(O5),VLOOKUP($B5+6&amp;$C5,concat!$B$2:$C$200,2,0),O5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="Q5" s="3" t="str">
         <f>IF(ISNA(P5),VLOOKUP($B5-7&amp;$C5,concat!$B$2:$C$200,2,0),P5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="R5" s="3" t="str">
         <f>IF(ISNA(Q5),VLOOKUP($B5+7&amp;$C5,concat!$B$2:$C$200,2,0),Q5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="S5" s="3" t="str">
         <f>IF(ISNA(R5),VLOOKUP($B5-8&amp;$C5,concat!$B$2:$C$200,2,0),R5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="T5" s="3" t="str">
         <f>IF(ISNA(S5),VLOOKUP($B5+8&amp;$C5,concat!$B$2:$C$200,2,0),S5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="U5" s="3" t="str">
         <f>IF(ISNA(T5),VLOOKUP($B5+9&amp;$C5,concat!$B$2:$C$200,2,0),T5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="V5" s="3" t="str">
         <f>IF(ISNA(U5),VLOOKUP($B5-9&amp;$C5,concat!$B$2:$C$200,2,0),U5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="W5" s="3" t="str">
         <f>IF(ISNA(V5),VLOOKUP($B5-10&amp;$C5,concat!$B$2:$C$200,2,0),V5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IF(ISNA(W5),VLOOKUP($B5+10&amp;$C5,concat!$B$2:$C$200,2,0),W5)</f>
-        <v>Emissão: 03/10/2022</v>
+        <v>Emissão: 01/09/2022</v>
       </c>
       <c r="Z5" s="3" t="str">
         <f>MID(X5,FIND(":",X5)+2,10)</f>
-        <v>03/10/2022</v>
+        <v>01/09/2022</v>
       </c>
       <c r="AA5" s="17" t="str">
         <f>A5</f>
@@ -13299,10 +13804,10 @@
       </c>
       <c r="AB5" s="17" t="str">
         <f>Z5</f>
-        <v>03/10/2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>01/09/2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -13314,87 +13819,87 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP($B6&amp;$C6,concat!$B$2:$C$200,2,0)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>IF(ISNA(D6),VLOOKUP($B6-1&amp;$C6,concat!$B$2:$C$200,2,0),D6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISNA(E6),VLOOKUP($B6+1&amp;$C6,concat!$B$2:$C$200,2,0),E6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IF(ISNA(F6),VLOOKUP($B6-2&amp;$C6,concat!$B$2:$C$200,2,0),F6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="H6" s="3" t="str">
         <f>IF(ISNA(G6),VLOOKUP($B6+2&amp;$C6,concat!$B$2:$C$200,2,0),G6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>IF(ISNA(H6),VLOOKUP($B6-3&amp;$C6,concat!$B$2:$C$200,2,0),H6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="J6" s="3" t="str">
         <f>IF(ISNA(I6),VLOOKUP($B6+3&amp;$C6,concat!$B$2:$C$200,2,0),I6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="K6" s="3" t="str">
         <f>IF(ISNA(J6),VLOOKUP($B6-4&amp;$C6,concat!$B$2:$C$200,2,0),J6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="L6" s="3" t="str">
         <f>IF(ISNA(K6),VLOOKUP($B6+4&amp;$C6,concat!$B$2:$C$200,2,0),K6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="M6" s="3" t="str">
         <f>IF(ISNA(L6),VLOOKUP($B6-5&amp;$C6,concat!$B$2:$C$200,2,0),L6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="N6" s="3" t="str">
         <f>IF(ISNA(M6),VLOOKUP($B6+5&amp;$C6,concat!$B$2:$C$200,2,0),M6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="O6" s="3" t="str">
         <f>IF(ISNA(N6),VLOOKUP($B6-6&amp;$C6,concat!$B$2:$C$200,2,0),N6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="P6" s="3" t="str">
         <f>IF(ISNA(O6),VLOOKUP($B6+6&amp;$C6,concat!$B$2:$C$200,2,0),O6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f>IF(ISNA(P6),VLOOKUP($B6-7&amp;$C6,concat!$B$2:$C$200,2,0),P6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="R6" s="3" t="str">
         <f>IF(ISNA(Q6),VLOOKUP($B6+7&amp;$C6,concat!$B$2:$C$200,2,0),Q6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="S6" s="3" t="str">
         <f>IF(ISNA(R6),VLOOKUP($B6-8&amp;$C6,concat!$B$2:$C$200,2,0),R6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="T6" s="3" t="str">
         <f>IF(ISNA(S6),VLOOKUP($B6+8&amp;$C6,concat!$B$2:$C$200,2,0),S6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="U6" s="3" t="str">
         <f>IF(ISNA(T6),VLOOKUP($B6+9&amp;$C6,concat!$B$2:$C$200,2,0),T6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="V6" s="3" t="str">
         <f>IF(ISNA(U6),VLOOKUP($B6-9&amp;$C6,concat!$B$2:$C$200,2,0),U6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="W6" s="3" t="str">
         <f>IF(ISNA(V6),VLOOKUP($B6-10&amp;$C6,concat!$B$2:$C$200,2,0),V6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IF(ISNA(W6),VLOOKUP($B6+10&amp;$C6,concat!$B$2:$C$200,2,0),W6)</f>
-        <v>16.925,11</v>
+        <v>17.349,82</v>
       </c>
       <c r="AA6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13402,17 +13907,11 @@
       </c>
       <c r="AB6" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>16.925,11</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="3">
-        <f>LEN(AI10)-LEN(SUBSTITUTE(AI10,",",""))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+        <v>17.349,82</v>
+      </c>
+      <c r="AE6" s="5"/>
+    </row>
+    <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
@@ -13424,91 +13923,91 @@
       </c>
       <c r="D7" s="3" t="str">
         <f>VLOOKUP($B7&amp;$C7,concat!$B$2:$C$200,2,0)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>IF(ISNA(D7),VLOOKUP($B7-1&amp;$C7,concat!$B$2:$C$200,2,0),D7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISNA(E7),VLOOKUP($B7+1&amp;$C7,concat!$B$2:$C$200,2,0),E7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(ISNA(F7),VLOOKUP($B7-2&amp;$C7,concat!$B$2:$C$200,2,0),F7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>IF(ISNA(G7),VLOOKUP($B7+2&amp;$C7,concat!$B$2:$C$200,2,0),G7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(ISNA(H7),VLOOKUP($B7-3&amp;$C7,concat!$B$2:$C$200,2,0),H7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="J7" s="3" t="str">
         <f>IF(ISNA(I7),VLOOKUP($B7+3&amp;$C7,concat!$B$2:$C$200,2,0),I7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="K7" s="3" t="str">
         <f>IF(ISNA(J7),VLOOKUP($B7-4&amp;$C7,concat!$B$2:$C$200,2,0),J7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="L7" s="3" t="str">
         <f>IF(ISNA(K7),VLOOKUP($B7+4&amp;$C7,concat!$B$2:$C$200,2,0),K7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="M7" s="3" t="str">
         <f>IF(ISNA(L7),VLOOKUP($B7-5&amp;$C7,concat!$B$2:$C$200,2,0),L7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="N7" s="3" t="str">
         <f>IF(ISNA(M7),VLOOKUP($B7+5&amp;$C7,concat!$B$2:$C$200,2,0),M7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="O7" s="3" t="str">
         <f>IF(ISNA(N7),VLOOKUP($B7-6&amp;$C7,concat!$B$2:$C$200,2,0),N7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="P7" s="3" t="str">
         <f>IF(ISNA(O7),VLOOKUP($B7+6&amp;$C7,concat!$B$2:$C$200,2,0),O7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="Q7" s="3" t="str">
         <f>IF(ISNA(P7),VLOOKUP($B7-7&amp;$C7,concat!$B$2:$C$200,2,0),P7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="R7" s="3" t="str">
         <f>IF(ISNA(Q7),VLOOKUP($B7+7&amp;$C7,concat!$B$2:$C$200,2,0),Q7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="S7" s="3" t="str">
         <f>IF(ISNA(R7),VLOOKUP($B7-8&amp;$C7,concat!$B$2:$C$200,2,0),R7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="T7" s="3" t="str">
         <f>IF(ISNA(S7),VLOOKUP($B7+8&amp;$C7,concat!$B$2:$C$200,2,0),S7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="U7" s="3" t="str">
         <f>IF(ISNA(T7),VLOOKUP($B7+9&amp;$C7,concat!$B$2:$C$200,2,0),T7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="V7" s="3" t="str">
         <f>IF(ISNA(U7),VLOOKUP($B7-9&amp;$C7,concat!$B$2:$C$200,2,0),U7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="W7" s="3" t="str">
         <f>IF(ISNA(V7),VLOOKUP($B7-10&amp;$C7,concat!$B$2:$C$200,2,0),V7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IF(ISNA(W7),VLOOKUP($B7+10&amp;$C7,concat!$B$2:$C$200,2,0),W7)</f>
-        <v>Leitura Anterior:31/08/2022</v>
+        <v>Leitura Anterior:31/07/2022</v>
       </c>
       <c r="Z7" s="3" t="str">
         <f>MID(X7,FIND(":",X7)+1,10)</f>
-        <v>31/08/2022</v>
+        <v>31/07/2022</v>
       </c>
       <c r="AA7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13516,10 +14015,10 @@
       </c>
       <c r="AB7" s="17" t="str">
         <f>Z7</f>
-        <v>31/08/2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31/07/2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
@@ -13531,91 +14030,91 @@
       </c>
       <c r="D8" s="3" t="str">
         <f>VLOOKUP($B8&amp;$C8,concat!$B$2:$C$200,2,0)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>IF(ISNA(D8),VLOOKUP($B8-1&amp;$C8,concat!$B$2:$C$200,2,0),D8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISNA(E8),VLOOKUP($B8+1&amp;$C8,concat!$B$2:$C$200,2,0),E8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(ISNA(F8),VLOOKUP($B8-2&amp;$C8,concat!$B$2:$C$200,2,0),F8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>IF(ISNA(G8),VLOOKUP($B8+2&amp;$C8,concat!$B$2:$C$200,2,0),G8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(ISNA(H8),VLOOKUP($B8-3&amp;$C8,concat!$B$2:$C$200,2,0),H8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>IF(ISNA(I8),VLOOKUP($B8+3&amp;$C8,concat!$B$2:$C$200,2,0),I8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="K8" s="3" t="str">
         <f>IF(ISNA(J8),VLOOKUP($B8-4&amp;$C8,concat!$B$2:$C$200,2,0),J8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="L8" s="3" t="str">
         <f>IF(ISNA(K8),VLOOKUP($B8+4&amp;$C8,concat!$B$2:$C$200,2,0),K8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="M8" s="3" t="str">
         <f>IF(ISNA(L8),VLOOKUP($B8-5&amp;$C8,concat!$B$2:$C$200,2,0),L8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="N8" s="3" t="str">
         <f>IF(ISNA(M8),VLOOKUP($B8+5&amp;$C8,concat!$B$2:$C$200,2,0),M8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="O8" s="3" t="str">
         <f>IF(ISNA(N8),VLOOKUP($B8-6&amp;$C8,concat!$B$2:$C$200,2,0),N8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="P8" s="3" t="str">
         <f>IF(ISNA(O8),VLOOKUP($B8+6&amp;$C8,concat!$B$2:$C$200,2,0),O8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f>IF(ISNA(P8),VLOOKUP($B8-7&amp;$C8,concat!$B$2:$C$200,2,0),P8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="R8" s="3" t="str">
         <f>IF(ISNA(Q8),VLOOKUP($B8+7&amp;$C8,concat!$B$2:$C$200,2,0),Q8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="S8" s="3" t="str">
         <f>IF(ISNA(R8),VLOOKUP($B8-8&amp;$C8,concat!$B$2:$C$200,2,0),R8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="T8" s="3" t="str">
         <f>IF(ISNA(S8),VLOOKUP($B8+8&amp;$C8,concat!$B$2:$C$200,2,0),S8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="U8" s="3" t="str">
         <f>IF(ISNA(T8),VLOOKUP($B8+9&amp;$C8,concat!$B$2:$C$200,2,0),T8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="V8" s="3" t="str">
         <f>IF(ISNA(U8),VLOOKUP($B8-9&amp;$C8,concat!$B$2:$C$200,2,0),U8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="W8" s="3" t="str">
         <f>IF(ISNA(V8),VLOOKUP($B8-10&amp;$C8,concat!$B$2:$C$200,2,0),V8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IF(ISNA(W8),VLOOKUP($B8+10&amp;$C8,concat!$B$2:$C$200,2,0),W8)</f>
-        <v>Leitura Atual:30/09/2022</v>
+        <v>Leitura Atual:31/08/2022</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f>MID(X8,FIND(":",X8)+1,10)</f>
-        <v>30/09/2022</v>
+        <v>31/08/2022</v>
       </c>
       <c r="AA8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13623,10 +14122,52 @@
       </c>
       <c r="AB8" s="17" t="str">
         <f>Z8</f>
-        <v>30/09/2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31/08/2022</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL8" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM8" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN8" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO8" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" s="78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -13638,87 +14179,87 @@
       </c>
       <c r="D9" s="3" t="str">
         <f>VLOOKUP($B9&amp;$C9,concat!$B$2:$C$200,2,0)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>IF(ISNA(D9),VLOOKUP($B9-1&amp;$C9,concat!$B$2:$C$200,2,0),D9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISNA(E9),VLOOKUP($B9+1&amp;$C9,concat!$B$2:$C$200,2,0),E9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(ISNA(F9),VLOOKUP($B9-2&amp;$C9,concat!$B$2:$C$200,2,0),F9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>IF(ISNA(G9),VLOOKUP($B9+2&amp;$C9,concat!$B$2:$C$200,2,0),G9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(ISNA(H9),VLOOKUP($B9-3&amp;$C9,concat!$B$2:$C$200,2,0),H9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>IF(ISNA(I9),VLOOKUP($B9+3&amp;$C9,concat!$B$2:$C$200,2,0),I9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>IF(ISNA(J9),VLOOKUP($B9-4&amp;$C9,concat!$B$2:$C$200,2,0),J9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="L9" s="3" t="str">
         <f>IF(ISNA(K9),VLOOKUP($B9+4&amp;$C9,concat!$B$2:$C$200,2,0),K9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="M9" s="3" t="str">
         <f>IF(ISNA(L9),VLOOKUP($B9-5&amp;$C9,concat!$B$2:$C$200,2,0),L9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="N9" s="3" t="str">
         <f>IF(ISNA(M9),VLOOKUP($B9+5&amp;$C9,concat!$B$2:$C$200,2,0),M9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="O9" s="3" t="str">
         <f>IF(ISNA(N9),VLOOKUP($B9-6&amp;$C9,concat!$B$2:$C$200,2,0),N9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="P9" s="3" t="str">
         <f>IF(ISNA(O9),VLOOKUP($B9+6&amp;$C9,concat!$B$2:$C$200,2,0),O9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="Q9" s="3" t="str">
         <f>IF(ISNA(P9),VLOOKUP($B9-7&amp;$C9,concat!$B$2:$C$200,2,0),P9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="R9" s="3" t="str">
         <f>IF(ISNA(Q9),VLOOKUP($B9+7&amp;$C9,concat!$B$2:$C$200,2,0),Q9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="S9" s="3" t="str">
         <f>IF(ISNA(R9),VLOOKUP($B9-8&amp;$C9,concat!$B$2:$C$200,2,0),R9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="T9" s="3" t="str">
         <f>IF(ISNA(S9),VLOOKUP($B9+8&amp;$C9,concat!$B$2:$C$200,2,0),S9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="U9" s="3" t="str">
         <f>IF(ISNA(T9),VLOOKUP($B9+9&amp;$C9,concat!$B$2:$C$200,2,0),T9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="V9" s="3" t="str">
         <f>IF(ISNA(U9),VLOOKUP($B9-9&amp;$C9,concat!$B$2:$C$200,2,0),U9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="W9" s="3" t="str">
         <f>IF(ISNA(V9),VLOOKUP($B9-10&amp;$C9,concat!$B$2:$C$200,2,0),V9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IF(ISNA(W9),VLOOKUP($B9+10&amp;$C9,concat!$B$2:$C$200,2,0),W9)</f>
-        <v>31/10/2022</v>
+        <v>30/09/2022</v>
       </c>
       <c r="AA9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -13726,33 +14267,34 @@
       </c>
       <c r="AB9" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>31/10/2022</v>
-      </c>
-      <c r="AD9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+        <v>30/09/2022</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AI9" s="3" t="str">
+        <f>Z10</f>
+        <v>128,10128,101.489,951.489,9514,70200,558,40824,10</v>
+      </c>
+      <c r="AJ9" s="7">
+        <f>LEN(AI9)</f>
+        <v>49</v>
+      </c>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62" t="e">
+        <f>Z19</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR9" s="63" t="e">
+        <f>LEN(AQ9)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B10" s="15">
         <v>176</v>
@@ -13762,87 +14304,87 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP($B10&amp;$C10,concat!$B$2:$C$200,2,0)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>IF(ISNA(D10),VLOOKUP($B10-1&amp;$C10,concat!$B$2:$C$200,2,0),D10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>IF(ISNA(E10),VLOOKUP($B10+1&amp;$C10,concat!$B$2:$C$200,2,0),E10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IF(ISNA(F10),VLOOKUP($B10-2&amp;$C10,concat!$B$2:$C$200,2,0),F10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>IF(ISNA(G10),VLOOKUP($B10+2&amp;$C10,concat!$B$2:$C$200,2,0),G10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>IF(ISNA(H10),VLOOKUP($B10-3&amp;$C10,concat!$B$2:$C$200,2,0),H10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>IF(ISNA(I10),VLOOKUP($B10+3&amp;$C10,concat!$B$2:$C$200,2,0),I10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>IF(ISNA(J10),VLOOKUP($B10-4&amp;$C10,concat!$B$2:$C$200,2,0),J10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>IF(ISNA(K10),VLOOKUP($B10+4&amp;$C10,concat!$B$2:$C$200,2,0),K10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="M10" s="1" t="str">
         <f>IF(ISNA(L10),VLOOKUP($B10-5&amp;$C10,concat!$B$2:$C$200,2,0),L10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="N10" s="1" t="str">
         <f>IF(ISNA(M10),VLOOKUP($B10+5&amp;$C10,concat!$B$2:$C$200,2,0),M10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="O10" s="1" t="str">
         <f>IF(ISNA(N10),VLOOKUP($B10-6&amp;$C10,concat!$B$2:$C$200,2,0),N10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>IF(ISNA(O10),VLOOKUP($B10+6&amp;$C10,concat!$B$2:$C$200,2,0),O10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f>IF(ISNA(P10),VLOOKUP($B10-7&amp;$C10,concat!$B$2:$C$200,2,0),P10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="R10" s="1" t="str">
         <f>IF(ISNA(Q10),VLOOKUP($B10+7&amp;$C10,concat!$B$2:$C$200,2,0),Q10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="S10" s="1" t="str">
         <f>IF(ISNA(R10),VLOOKUP($B10-8&amp;$C10,concat!$B$2:$C$200,2,0),R10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="T10" s="1" t="str">
         <f>IF(ISNA(S10),VLOOKUP($B10+8&amp;$C10,concat!$B$2:$C$200,2,0),S10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="U10" s="1" t="str">
         <f>IF(ISNA(T10),VLOOKUP($B10+9&amp;$C10,concat!$B$2:$C$200,2,0),T10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="V10" s="1" t="str">
         <f>IF(ISNA(U10),VLOOKUP($B10-9&amp;$C10,concat!$B$2:$C$200,2,0),U10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="W10" s="1" t="str">
         <f>IF(ISNA(V10),VLOOKUP($B10-10&amp;$C10,concat!$B$2:$C$200,2,0),V10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="X10" s="1" t="str">
         <f>IF(ISNA(W10),VLOOKUP($B10+10&amp;$C10,concat!$B$2:$C$200,2,0),W10)</f>
-        <v>Quantidade181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>Quantidade128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="Y10" s="1">
         <f>LEN(X10)</f>
@@ -13850,26 +14392,26 @@
       </c>
       <c r="Z10" s="12" t="str">
         <f>RIGHT(X10,Y10-10)</f>
-        <v>181,65181,651.159,201.159,2023,10197,408,40824,10</v>
+        <v>128,10128,101.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="AA10" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>CONSUMO MENSAL</v>
+        <v>CONSUMO MENSAL (grande consumidor)</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AI10" s="3" t="str">
-        <f>Z10</f>
-        <v>181,65181,651.159,201.159,2023,10197,408,40824,10</v>
-      </c>
-      <c r="AJ10" s="7">
-        <f>LEN(AI10)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="7"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="63"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -13877,16 +14419,68 @@
         <f t="shared" si="0"/>
         <v>Consumo do Mês (P)</v>
       </c>
-      <c r="AB11" s="17" t="str">
-        <f>AG12</f>
-        <v>181,65</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB11" s="105" t="str">
+        <f t="shared" ref="AB11:AB18" si="2">IF(ISNA(AG11),"Pequeno consumidor ver abaixo \|/",AG11)</f>
+        <v>128,10</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <f>LEFT(AI9,FIND(",",AI9,1)-1)</f>
+        <v>128</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <f>MID(AI9,SEARCH(",",AI9),3)</f>
+        <v>,10</v>
+      </c>
+      <c r="AG11" s="6" t="str">
+        <f t="shared" ref="AG11:AG18" si="3">_xlfn.CONCAT(AE11,AF11)</f>
+        <v>128,10</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" ref="AH11:AH18" si="4">LEN(AG11)</f>
+        <v>6</v>
+      </c>
+      <c r="AI11" s="3" t="str">
+        <f>RIGHT(AI9,AJ9-AH11)</f>
+        <v>128,101.489,951.489,9514,70200,558,40824,10</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f t="shared" ref="AJ11:AJ18" si="5">LEN(AI11)</f>
+        <v>43</v>
+      </c>
+      <c r="AL11" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM11" s="62" t="e">
+        <f>LEFT(AQ9,FIND(",",AQ9,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN11" s="62" t="e">
+        <f>MID(AQ9,SEARCH(",",AQ9),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO11" s="66" t="e">
+        <f>_xlfn.CONCAT(AM11,AN11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP11" s="62" t="e">
+        <f>LEN(AO11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ11" s="62" t="e">
+        <f>RIGHT(AQ9,AR9-AP11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR11" s="63" t="e">
+        <f>LEN(AQ11)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -13894,39 +14488,66 @@
         <f t="shared" si="0"/>
         <v>Energia Ativa Injetada (P)</v>
       </c>
-      <c r="AB12" s="17" t="str">
-        <f t="shared" ref="AB12:AB18" si="2">AG13</f>
-        <v>181,65</v>
+      <c r="AB12" s="105" t="str">
+        <f t="shared" si="2"/>
+        <v>128,10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AE12" s="3" t="str">
-        <f>LEFT(AI10,FIND(",",AI10,1)-1)</f>
-        <v>181</v>
+        <f>LEFT(AI11,FIND(",",AI11,1)-1)</f>
+        <v>128</v>
       </c>
       <c r="AF12" s="3" t="str">
-        <f>MID(AI10,SEARCH(",",AI10),3)</f>
-        <v>,65</v>
+        <f>MID(AI11,SEARCH(",",AI11),3)</f>
+        <v>,10</v>
       </c>
       <c r="AG12" s="6" t="str">
-        <f t="shared" ref="AG12:AG19" si="3">_xlfn.CONCAT(AE12,AF12)</f>
-        <v>181,65</v>
+        <f t="shared" si="3"/>
+        <v>128,10</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" ref="AH12:AH19" si="4">LEN(AG12)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AI12" s="3" t="str">
-        <f>RIGHT(AI10,AJ10-AH12)</f>
-        <v>181,651.159,201.159,2023,10197,408,40824,10</v>
+        <f>RIGHT(AI11,AJ11-AH12)</f>
+        <v>1.489,951.489,9514,70200,558,40824,10</v>
       </c>
       <c r="AJ12" s="7">
-        <f t="shared" ref="AJ12:AJ19" si="5">LEN(AI12)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AL12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM12" s="62" t="e">
+        <f>LEFT(AQ11,FIND(",",AQ11,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" s="62" t="e">
+        <f>MID(AQ11,SEARCH(",",AQ11),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO12" s="66" t="e">
+        <f>_xlfn.CONCAT(AM12,AN12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP12" s="62" t="e">
+        <f>LEN(AO12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ12" s="62" t="e">
+        <f>RIGHT(AQ11,AR11-AP12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR12" s="63" t="e">
+        <f>LEN(AQ12)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
@@ -13934,64 +14555,91 @@
         <f t="shared" si="0"/>
         <v>Consumo do Mês (FP)</v>
       </c>
-      <c r="AB13" s="17" t="str">
+      <c r="AB13" s="105" t="str">
         <f t="shared" si="2"/>
-        <v>1.159,20</v>
+        <v>1.489,95</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE13" s="3" t="str">
         <f>LEFT(AI12,FIND(",",AI12,1)-1)</f>
-        <v>181</v>
+        <v>1.489</v>
       </c>
       <c r="AF13" s="3" t="str">
         <f>MID(AI12,SEARCH(",",AI12),3)</f>
-        <v>,65</v>
+        <v>,95</v>
       </c>
       <c r="AG13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>181,65</v>
+        <v>1.489,95</v>
       </c>
       <c r="AH13" s="3">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="3" t="str">
         <f>RIGHT(AI12,AJ12-AH13)</f>
-        <v>1.159,201.159,2023,10197,408,40824,10</v>
+        <v>1.489,9514,70200,558,40824,10</v>
       </c>
       <c r="AJ13" s="7">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="71" t="e">
+        <f>LEFT(AQ12,FIND(",",AQ12,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN13" s="71" t="e">
+        <f>MID(AQ12,SEARCH(",",AQ12),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO13" s="72" t="e">
+        <f>_xlfn.CONCAT(AM13,AN13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP13" s="71" t="e">
+        <f>LEN(AO13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ13" s="71" t="e">
+        <f>RIGHT(AQ12,AR12-AP13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR13" s="73" t="e">
+        <f>LEN(AQ13)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AA14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Energia Ativa Injetada (FP)</v>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="105" t="str">
         <f t="shared" si="2"/>
-        <v>1.159,20</v>
+        <v>1.489,95</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE14" s="3" t="str">
         <f>LEFT(AI13,FIND(",",AI13,1)-1)</f>
-        <v>1.159</v>
+        <v>1.489</v>
       </c>
       <c r="AF14" s="3" t="str">
-        <f>MID(AI13,SEARCH(",",AI13),3)</f>
-        <v>,20</v>
+        <f>MID(AI12,SEARCH(",",AI12),3)</f>
+        <v>,95</v>
       </c>
       <c r="AG14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1.159,20</v>
+        <v>1.489,95</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="4"/>
@@ -13999,102 +14647,102 @@
       </c>
       <c r="AI14" s="3" t="str">
         <f>RIGHT(AI13,AJ13-AH14)</f>
-        <v>1.159,2023,10197,408,40824,10</v>
+        <v>14,70200,558,40824,10</v>
       </c>
       <c r="AJ14" s="7">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Energia Reativa Exced (P)</v>
       </c>
-      <c r="AB15" s="17" t="str">
+      <c r="AB15" s="105" t="str">
         <f t="shared" si="2"/>
-        <v>23,10</v>
+        <v>14,70</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AE15" s="3" t="str">
-        <f>LEFT(AI13,FIND(",",AI13,1)-1)</f>
-        <v>1.159</v>
+        <f>LEFT(AI14,FIND(",",AI14,1)-1)</f>
+        <v>14</v>
       </c>
       <c r="AF15" s="3" t="str">
-        <f>MID(AI13,SEARCH(",",AI13),3)</f>
-        <v>,20</v>
+        <f>MID(AI14,SEARCH(",",AI14),3)</f>
+        <v>,70</v>
       </c>
       <c r="AG15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>1.159,20</v>
+        <v>14,70</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI15" s="3" t="str">
         <f>RIGHT(AI14,AJ14-AH15)</f>
-        <v>23,10197,408,40824,10</v>
+        <v>200,558,40824,10</v>
       </c>
       <c r="AJ15" s="7">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Energia Reativa Exced (FP)</v>
       </c>
-      <c r="AB16" s="17" t="str">
+      <c r="AB16" s="105" t="str">
         <f t="shared" si="2"/>
-        <v>197,40</v>
+        <v>200,55</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AE16" s="3" t="str">
         <f>LEFT(AI15,FIND(",",AI15,1)-1)</f>
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="AF16" s="3" t="str">
         <f>MID(AI15,SEARCH(",",AI15),3)</f>
-        <v>,10</v>
+        <v>,55</v>
       </c>
       <c r="AG16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>23,10</v>
+        <v>200,55</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI16" s="3" t="str">
         <f>RIGHT(AI15,AJ15-AH16)</f>
-        <v>197,408,40824,10</v>
+        <v>8,40824,10</v>
       </c>
       <c r="AJ16" s="7">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AA17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Demanda de Potência Medida (FP)</v>
       </c>
-      <c r="AB17" s="17" t="str">
+      <c r="AB17" s="105" t="str">
         <f t="shared" si="2"/>
         <v>8,40</v>
       </c>
@@ -14102,33 +14750,33 @@
         <v>29</v>
       </c>
       <c r="AE17" s="3" t="str">
-        <f>LEFT(AI16,FIND(",",AI16,1)-1)</f>
-        <v>197</v>
+        <f t="shared" ref="AE17" si="6">LEFT(AI16,FIND(",",AI16,1)-1)</f>
+        <v>8</v>
       </c>
       <c r="AF17" s="3" t="str">
-        <f>MID(AI16,SEARCH(",",AI16),3)</f>
+        <f t="shared" ref="AF17" si="7">MID(AI16,SEARCH(",",AI16),3)</f>
         <v>,40</v>
       </c>
       <c r="AG17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>197,40</v>
+        <v>8,40</v>
       </c>
       <c r="AH17" s="3">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="3" t="str">
-        <f>RIGHT(AI16,AJ16-AH17)</f>
-        <v>8,40824,10</v>
+        <f t="shared" ref="AI17" si="8">RIGHT(AI16,AJ16-AH17)</f>
+        <v>824,10</v>
       </c>
       <c r="AJ17" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11"/>
@@ -14159,275 +14807,459 @@
         <f t="shared" si="0"/>
         <v>Demanda Potência Não Consumida (FP)</v>
       </c>
-      <c r="AB18" s="26" t="str">
+      <c r="AB18" s="106" t="str">
         <f t="shared" si="2"/>
         <v>824,10</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AE18" s="3" t="str">
-        <f t="shared" ref="AE18:AE19" si="6">LEFT(AI17,FIND(",",AI17,1)-1)</f>
-        <v>8</v>
-      </c>
-      <c r="AF18" s="3" t="str">
-        <f t="shared" ref="AF18:AF19" si="7">MID(AI17,SEARCH(",",AI17),3)</f>
-        <v>,40</v>
-      </c>
-      <c r="AG18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>8,40</v>
-      </c>
-      <c r="AH18" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AI18" s="3" t="str">
-        <f t="shared" ref="AI18:AI19" si="8">RIGHT(AI17,AJ17-AH18)</f>
-        <v>824,10</v>
-      </c>
-      <c r="AJ18" s="7">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="15">
-        <v>254</v>
-      </c>
-      <c r="C19" s="23">
-        <v>568</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP($B19&amp;$C19,concat!$B$2:$C$200,2,0)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f>IF(ISNA(D19),VLOOKUP($B19-1&amp;$C19,concat!$B$2:$C$200,2,0),D19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f>IF(ISNA(E19),VLOOKUP($B19+1&amp;$C19,concat!$B$2:$C$200,2,0),E19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>IF(ISNA(F19),VLOOKUP($B19-2&amp;$C19,concat!$B$2:$C$200,2,0),F19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>IF(ISNA(G19),VLOOKUP($B19+2&amp;$C19,concat!$B$2:$C$200,2,0),G19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>IF(ISNA(H19),VLOOKUP($B19-3&amp;$C19,concat!$B$2:$C$200,2,0),H19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>IF(ISNA(I19),VLOOKUP($B19+3&amp;$C19,concat!$B$2:$C$200,2,0),I19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>IF(ISNA(J19),VLOOKUP($B19-4&amp;$C19,concat!$B$2:$C$200,2,0),J19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>IF(ISNA(K19),VLOOKUP($B19+4&amp;$C19,concat!$B$2:$C$200,2,0),K19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f>IF(ISNA(L19),VLOOKUP($B19-5&amp;$C19,concat!$B$2:$C$200,2,0),L19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f>IF(ISNA(M19),VLOOKUP($B19+5&amp;$C19,concat!$B$2:$C$200,2,0),M19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f>IF(ISNA(N19),VLOOKUP($B19-6&amp;$C19,concat!$B$2:$C$200,2,0),N19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="P19" s="1" t="str">
-        <f>IF(ISNA(O19),VLOOKUP($B19+6&amp;$C19,concat!$B$2:$C$200,2,0),O19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f>IF(ISNA(P19),VLOOKUP($B19-7&amp;$C19,concat!$B$2:$C$200,2,0),P19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="R19" s="1" t="str">
-        <f>IF(ISNA(Q19),VLOOKUP($B19+7&amp;$C19,concat!$B$2:$C$200,2,0),Q19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="S19" s="1" t="str">
-        <f>IF(ISNA(R19),VLOOKUP($B19-8&amp;$C19,concat!$B$2:$C$200,2,0),R19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="T19" s="1" t="str">
-        <f>IF(ISNA(S19),VLOOKUP($B19+8&amp;$C19,concat!$B$2:$C$200,2,0),S19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="U19" s="1" t="str">
-        <f>IF(ISNA(T19),VLOOKUP($B19+9&amp;$C19,concat!$B$2:$C$200,2,0),T19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="V19" s="1" t="str">
-        <f>IF(ISNA(U19),VLOOKUP($B19-9&amp;$C19,concat!$B$2:$C$200,2,0),U19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="W19" s="1" t="str">
-        <f>IF(ISNA(V19),VLOOKUP($B19-10&amp;$C19,concat!$B$2:$C$200,2,0),V19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="X19" s="1" t="str">
-        <f>IF(ISNA(W19),VLOOKUP($B19+10&amp;$C19,concat!$B$2:$C$200,2,0),W19)</f>
-        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="Y19" s="1">
-        <f>LEN(X19)</f>
-        <v>83</v>
-      </c>
-      <c r="Z19" s="12" t="str">
-        <f>RIGHT(X19,Y19-17)</f>
-        <v>1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
-      </c>
-      <c r="AA19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>TARIFA CONSUMO c/ TRIBUTOS</v>
-      </c>
-      <c r="AB19" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE19" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="AE18" s="9" t="str">
+        <f>LEFT(AI17,FIND(",",AI17,1)-1)</f>
         <v>824</v>
       </c>
-      <c r="AF19" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="AF18" s="9" t="str">
+        <f>MID(AI17,SEARCH(",",AI17),3)</f>
         <v>,10</v>
       </c>
-      <c r="AG19" s="10" t="str">
+      <c r="AG18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>824,10</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH18" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AI19" s="9" t="str">
-        <f t="shared" si="8"/>
+      <c r="AI18" s="9" t="str">
+        <f>RIGHT(AI17,AJ17-AH18)</f>
         <v/>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ18" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA20" s="17" t="str">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="60">
+        <v>176</v>
+      </c>
+      <c r="C19" s="61">
+        <v>608</v>
+      </c>
+      <c r="D19" s="3" t="e">
+        <f>VLOOKUP($B19&amp;$C19,concat!$B$2:$C$200,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="3" t="e">
+        <f>IF(ISNA(D19),VLOOKUP($B19-1&amp;$C19,concat!$B$2:$C$200,2,0),D19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="3" t="e">
+        <f>IF(ISNA(E19),VLOOKUP($B19+1&amp;$C19,concat!$B$2:$C$200,2,0),E19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="3" t="e">
+        <f>IF(ISNA(F19),VLOOKUP($B19-2&amp;$C19,concat!$B$2:$C$200,2,0),F19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="3" t="e">
+        <f>IF(ISNA(G19),VLOOKUP($B19+2&amp;$C19,concat!$B$2:$C$200,2,0),G19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="3" t="e">
+        <f>IF(ISNA(H19),VLOOKUP($B19-3&amp;$C19,concat!$B$2:$C$200,2,0),H19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="3" t="e">
+        <f>IF(ISNA(I19),VLOOKUP($B19+3&amp;$C19,concat!$B$2:$C$200,2,0),I19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="3" t="e">
+        <f>IF(ISNA(J19),VLOOKUP($B19-4&amp;$C19,concat!$B$2:$C$200,2,0),J19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="3" t="e">
+        <f>IF(ISNA(K19),VLOOKUP($B19+4&amp;$C19,concat!$B$2:$C$200,2,0),K19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="3" t="e">
+        <f>IF(ISNA(L19),VLOOKUP($B19-5&amp;$C19,concat!$B$2:$C$200,2,0),L19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f>IF(ISNA(M19),VLOOKUP($B19+5&amp;$C19,concat!$B$2:$C$200,2,0),M19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="3" t="e">
+        <f>IF(ISNA(N19),VLOOKUP($B19-6&amp;$C19,concat!$B$2:$C$200,2,0),N19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="3" t="e">
+        <f>IF(ISNA(O19),VLOOKUP($B19+6&amp;$C19,concat!$B$2:$C$200,2,0),O19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="3" t="e">
+        <f>IF(ISNA(P19),VLOOKUP($B19-7&amp;$C19,concat!$B$2:$C$200,2,0),P19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="3" t="e">
+        <f>IF(ISNA(Q19),VLOOKUP($B19+7&amp;$C19,concat!$B$2:$C$200,2,0),Q19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="3" t="e">
+        <f>IF(ISNA(R19),VLOOKUP($B19-8&amp;$C19,concat!$B$2:$C$200,2,0),R19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" s="3" t="e">
+        <f>IF(ISNA(S19),VLOOKUP($B19+8&amp;$C19,concat!$B$2:$C$200,2,0),S19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" s="3" t="e">
+        <f>IF(ISNA(T19),VLOOKUP($B19+9&amp;$C19,concat!$B$2:$C$200,2,0),T19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" s="3" t="e">
+        <f>IF(ISNA(U19),VLOOKUP($B19-9&amp;$C19,concat!$B$2:$C$200,2,0),U19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" s="3" t="e">
+        <f>IF(ISNA(V19),VLOOKUP($B19-10&amp;$C19,concat!$B$2:$C$200,2,0),V19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="3" t="e">
+        <f>IF(ISNA(W19),VLOOKUP($B19+10&amp;$C19,concat!$B$2:$C$200,2,0),W19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="81" t="e">
+        <f>LEN(X19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" s="63" t="e">
+        <f>RIGHT(X19,Y19-10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Consumo do Mês (P)</v>
-      </c>
-      <c r="AB20" s="17" t="str">
-        <f>AG24</f>
-        <v>1,616240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="AA21" s="17" t="str">
+        <v>CONSUMO MENSAL (pequeno consumidor)</v>
+      </c>
+      <c r="AB19" s="104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Energia Ativa Injetada (P)</v>
-      </c>
-      <c r="AB21" s="17" t="str">
-        <f t="shared" ref="AB21:AB27" si="9">AG25</f>
-        <v>1,616240</v>
+        <v>Consumo em kWh</v>
+      </c>
+      <c r="AB20" s="64" t="str">
+        <f>IF(ISNA(AO11),"Grande consumidor ver acima /|\",AO11)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>Energia Atv Injetada</v>
+      </c>
+      <c r="AB21" s="64" t="str">
+        <f>IF(ISNA(AO12),"Grande consumidor ver acima /|\",AO12)</f>
+        <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AE21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AJ21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL21" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM21" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN21" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO21" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP21" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="AG21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ21" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA22" s="17" t="str">
+      <c r="AQ21" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR21" s="78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Consumo do Mês (FP)</v>
-      </c>
-      <c r="AB22" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,449840</v>
+        <v>Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="AB22" s="64" t="str">
+        <f>IF(ISNA(AO13),"Grande consumidor ver acima /|\",AO13)</f>
+        <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AI22" s="3" t="str">
-        <f>Z19</f>
+        <f>Z23</f>
         <v>1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
       </c>
       <c r="AJ22" s="7">
         <f>LEN(AI22)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA23" s="17" t="str">
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62" t="e">
+        <f>Z32</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR22" s="63" t="e">
+        <f>LEN(AQ22)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="15">
+        <v>254</v>
+      </c>
+      <c r="C23" s="23">
+        <v>568</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>VLOOKUP($B23&amp;$C23,concat!$B$2:$C$200,2,0)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>IF(ISNA(D23),VLOOKUP($B23-1&amp;$C23,concat!$B$2:$C$200,2,0),D23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(ISNA(E23),VLOOKUP($B23+1&amp;$C23,concat!$B$2:$C$200,2,0),E23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>IF(ISNA(F23),VLOOKUP($B23-2&amp;$C23,concat!$B$2:$C$200,2,0),F23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IF(ISNA(G23),VLOOKUP($B23+2&amp;$C23,concat!$B$2:$C$200,2,0),G23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>IF(ISNA(H23),VLOOKUP($B23-3&amp;$C23,concat!$B$2:$C$200,2,0),H23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f>IF(ISNA(I23),VLOOKUP($B23+3&amp;$C23,concat!$B$2:$C$200,2,0),I23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>IF(ISNA(J23),VLOOKUP($B23-4&amp;$C23,concat!$B$2:$C$200,2,0),J23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>IF(ISNA(K23),VLOOKUP($B23+4&amp;$C23,concat!$B$2:$C$200,2,0),K23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>IF(ISNA(L23),VLOOKUP($B23-5&amp;$C23,concat!$B$2:$C$200,2,0),L23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f>IF(ISNA(M23),VLOOKUP($B23+5&amp;$C23,concat!$B$2:$C$200,2,0),M23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f>IF(ISNA(N23),VLOOKUP($B23-6&amp;$C23,concat!$B$2:$C$200,2,0),N23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>IF(ISNA(O23),VLOOKUP($B23+6&amp;$C23,concat!$B$2:$C$200,2,0),O23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f>IF(ISNA(P23),VLOOKUP($B23-7&amp;$C23,concat!$B$2:$C$200,2,0),P23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>IF(ISNA(Q23),VLOOKUP($B23+7&amp;$C23,concat!$B$2:$C$200,2,0),Q23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <f>IF(ISNA(R23),VLOOKUP($B23-8&amp;$C23,concat!$B$2:$C$200,2,0),R23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="T23" s="1" t="str">
+        <f>IF(ISNA(S23),VLOOKUP($B23+8&amp;$C23,concat!$B$2:$C$200,2,0),S23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f>IF(ISNA(T23),VLOOKUP($B23+9&amp;$C23,concat!$B$2:$C$200,2,0),T23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f>IF(ISNA(U23),VLOOKUP($B23-9&amp;$C23,concat!$B$2:$C$200,2,0),U23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <f>IF(ISNA(V23),VLOOKUP($B23-10&amp;$C23,concat!$B$2:$C$200,2,0),V23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f>IF(ISNA(W23),VLOOKUP($B23+10&amp;$C23,concat!$B$2:$C$200,2,0),W23)</f>
+        <v>Tarifa c/Tributos1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>LEN(X23)</f>
+        <v>83</v>
+      </c>
+      <c r="Z23" s="12" t="str">
+        <f>RIGHT(X23,Y23-17)</f>
+        <v>1,6162401,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
+      </c>
+      <c r="AA23" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Energia Ativa Injetada (FP)</v>
-      </c>
-      <c r="AB23" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,449840</v>
+        <v>TARIFA CONSUMO c/ TRIBUTOS (grande consumidor)</v>
+      </c>
+      <c r="AB23" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AJ23" s="7"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="63"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AA24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Energia Reativa Exced (P)</v>
-      </c>
-      <c r="AB24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,340220</v>
+        <v>Tarifa Consumo do Mês (P)</v>
+      </c>
+      <c r="AB24" s="64" t="str">
+        <f>IF(ISNA(AG24),"Pequeno consumidor ver abaixo \|/",AG24)</f>
+        <v>1,616240</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AE24" s="3" t="str">
         <f>LEFT(AI22,FIND(",",AI22,1)-1)</f>
@@ -14438,11 +15270,11 @@
         <v>,616240</v>
       </c>
       <c r="AG24" s="6" t="str">
-        <f t="shared" ref="AG24:AG31" si="10">_xlfn.CONCAT(AE24,AF24)</f>
+        <f t="shared" ref="AG24:AG31" si="9">_xlfn.CONCAT(AE24,AF24)</f>
         <v>1,616240</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" ref="AH24:AH31" si="11">LEN(AG24)</f>
+        <f t="shared" ref="AH24:AH31" si="10">LEN(AG24)</f>
         <v>8</v>
       </c>
       <c r="AI24" s="3" t="str">
@@ -14450,24 +15282,53 @@
         <v>1,6162400,4498400,4498400,3402200,34022020,18491020,184910</v>
       </c>
       <c r="AJ24" s="7">
-        <f t="shared" ref="AJ24:AJ31" si="12">LEN(AI24)</f>
+        <f t="shared" ref="AJ24:AJ31" si="11">LEN(AI24)</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL24" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM24" s="62" t="e">
+        <f>LEFT(AQ22,FIND(",",AQ22,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN24" s="62" t="e">
+        <f>MID(AQ22,SEARCH(",",AQ22),7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO24" s="66" t="e">
+        <f>_xlfn.CONCAT(AM24,AN24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP24" s="62" t="e">
+        <f>LEN(AO24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ24" s="62" t="e">
+        <f>RIGHT(AQ22,AR22-AP24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR24" s="63" t="e">
+        <f>LEN(AQ24)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="AA25" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Energia Reativa Exced (FP)</v>
-      </c>
-      <c r="AB25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,340220</v>
+        <v>Tarifa Energia Ativa Injetada (P)</v>
+      </c>
+      <c r="AB25" s="64" t="str">
+        <f t="shared" ref="AB25:AB31" si="12">IF(ISNA(AG25),"Pequeno consumidor ver abaixo \|/",AG25)</f>
+        <v>1,616240</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AE25" s="3" t="str">
         <f>LEFT(AI24,FIND(",",AI24,1)-1)</f>
@@ -14478,11 +15339,11 @@
         <v>,616240</v>
       </c>
       <c r="AG25" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>1,616240</v>
+      </c>
+      <c r="AH25" s="3">
         <f t="shared" si="10"/>
-        <v>1,616240</v>
-      </c>
-      <c r="AH25" s="3">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AI25" s="3" t="str">
@@ -14490,24 +15351,51 @@
         <v>0,4498400,4498400,3402200,34022020,18491020,184910</v>
       </c>
       <c r="AJ25" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL25" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM25" s="62" t="e">
+        <f>LEFT(AQ24,FIND(",",AQ24,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN25" s="62" t="e">
+        <f>MID(AQ24,SEARCH(",",AQ24),7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO25" s="66" t="e">
+        <f>_xlfn.CONCAT(AM25,AN25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP25" s="62" t="e">
+        <f>LEN(AO25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ25" s="62" t="e">
+        <f>RIGHT(AQ24,AR24-AP25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR25" s="63" t="e">
+        <f>LEN(AQ25)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AA26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Tarifa Demanda de Potência Medida (FP)</v>
-      </c>
-      <c r="AB26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>20,184910</v>
+        <v>Tarifa Consumo do Mês (FP)</v>
+      </c>
+      <c r="AB26" s="64" t="str">
+        <f t="shared" si="12"/>
+        <v>0,449840</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AE26" s="3" t="str">
         <f>LEFT(AI25,FIND(",",AI25,1)-1)</f>
@@ -14518,11 +15406,11 @@
         <v>,449840</v>
       </c>
       <c r="AG26" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,449840</v>
+      </c>
+      <c r="AH26" s="3">
         <f t="shared" si="10"/>
-        <v>0,449840</v>
-      </c>
-      <c r="AH26" s="3">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AI26" s="3" t="str">
@@ -14530,52 +15418,54 @@
         <v>0,4498400,3402200,34022020,18491020,184910</v>
       </c>
       <c r="AJ26" s="7">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="AL26" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM26" s="71" t="e">
+        <f>LEFT(AQ25,FIND(",",AQ25,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN26" s="71" t="e">
+        <f>MID(AQ25,SEARCH(",",AQ25),7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO26" s="72" t="e">
+        <f>_xlfn.CONCAT(AM26,AN26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP26" s="71" t="e">
+        <f>LEN(AO26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ26" s="71" t="e">
+        <f>RIGHT(AQ25,AR25-AP26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR26" s="73" t="e">
+        <f>LEN(AQ26)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Energia Ativa Injetada (FP)</v>
+      </c>
+      <c r="AB27" s="64" t="str">
         <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Tarifa Demanda Potência Não Consumida (FP)</v>
-      </c>
-      <c r="AB27" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>20,184910</v>
+        <v>0,449840</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AE27" s="3" t="str">
-        <f>LEFT(AI25,FIND(",",AI25,1)-1)</f>
+        <f>LEFT(AI26,FIND(",",AI26,1)-1)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="3" t="str">
@@ -14583,11 +15473,11 @@
         <v>,449840</v>
       </c>
       <c r="AG27" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,449840</v>
+      </c>
+      <c r="AH27" s="3">
         <f t="shared" si="10"/>
-        <v>0,449840</v>
-      </c>
-      <c r="AH27" s="3">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AI27" s="3" t="str">
@@ -14595,121 +15485,24 @@
         <v>0,3402200,34022020,18491020,184910</v>
       </c>
       <c r="AJ27" s="7">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Energia Reativa Exced (P)</v>
+      </c>
+      <c r="AB28" s="64" t="str">
         <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="15">
-        <v>293</v>
-      </c>
-      <c r="C28" s="23">
-        <v>568</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f>VLOOKUP($B28&amp;$C28,concat!$B$2:$C$200,2,0)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f>IF(ISNA(D28),VLOOKUP($B28-1&amp;$C28,concat!$B$2:$C$200,2,0),D28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f>IF(ISNA(E28),VLOOKUP($B28+1&amp;$C28,concat!$B$2:$C$200,2,0),E28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f>IF(ISNA(F28),VLOOKUP($B28-2&amp;$C28,concat!$B$2:$C$200,2,0),F28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>IF(ISNA(G28),VLOOKUP($B28+2&amp;$C28,concat!$B$2:$C$200,2,0),G28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f>IF(ISNA(H28),VLOOKUP($B28-3&amp;$C28,concat!$B$2:$C$200,2,0),H28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f>IF(ISNA(I28),VLOOKUP($B28+3&amp;$C28,concat!$B$2:$C$200,2,0),I28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f>IF(ISNA(J28),VLOOKUP($B28-4&amp;$C28,concat!$B$2:$C$200,2,0),J28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f>IF(ISNA(K28),VLOOKUP($B28+4&amp;$C28,concat!$B$2:$C$200,2,0),K28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f>IF(ISNA(L28),VLOOKUP($B28-5&amp;$C28,concat!$B$2:$C$200,2,0),L28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f>IF(ISNA(M28),VLOOKUP($B28+5&amp;$C28,concat!$B$2:$C$200,2,0),M28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="O28" s="1" t="str">
-        <f>IF(ISNA(N28),VLOOKUP($B28-6&amp;$C28,concat!$B$2:$C$200,2,0),N28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="P28" s="1" t="str">
-        <f>IF(ISNA(O28),VLOOKUP($B28+6&amp;$C28,concat!$B$2:$C$200,2,0),O28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="Q28" s="1" t="str">
-        <f>IF(ISNA(P28),VLOOKUP($B28-7&amp;$C28,concat!$B$2:$C$200,2,0),P28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="R28" s="1" t="str">
-        <f>IF(ISNA(Q28),VLOOKUP($B28+7&amp;$C28,concat!$B$2:$C$200,2,0),Q28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="S28" s="1" t="str">
-        <f>IF(ISNA(R28),VLOOKUP($B28-8&amp;$C28,concat!$B$2:$C$200,2,0),R28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="T28" s="1" t="str">
-        <f>IF(ISNA(S28),VLOOKUP($B28+8&amp;$C28,concat!$B$2:$C$200,2,0),S28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="U28" s="1" t="str">
-        <f>IF(ISNA(T28),VLOOKUP($B28+9&amp;$C28,concat!$B$2:$C$200,2,0),T28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="V28" s="1" t="str">
-        <f>IF(ISNA(U28),VLOOKUP($B28-9&amp;$C28,concat!$B$2:$C$200,2,0),U28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="W28" s="1" t="str">
-        <f>IF(ISNA(V28),VLOOKUP($B28-10&amp;$C28,concat!$B$2:$C$200,2,0),V28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="X28" s="1" t="str">
-        <f>IF(ISNA(W28),VLOOKUP($B28+10&amp;$C28,concat!$B$2:$C$200,2,0),W28)</f>
-        <v>Valor Total(R$)293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="Y28" s="1">
-        <f>LEN(X28)</f>
-        <v>65</v>
-      </c>
-      <c r="Z28" s="12" t="str">
-        <f>RIGHT(X28,Y28-15)</f>
-        <v>293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AA28" s="30" t="str">
-        <f t="shared" ref="AA28:AA36" si="13">A28</f>
-        <v>VALOR (Consumo x Tarifa)</v>
-      </c>
-      <c r="AB28" s="27" t="s">
-        <v>82</v>
+        <v>0,340220</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AE28" s="3" t="str">
         <f>LEFT(AI27,FIND(",",AI27,1)-1)</f>
@@ -14720,11 +15513,11 @@
         <v>,340220</v>
       </c>
       <c r="AG28" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,340220</v>
+      </c>
+      <c r="AH28" s="3">
         <f t="shared" si="10"/>
-        <v>0,340220</v>
-      </c>
-      <c r="AH28" s="3">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AI28" s="3" t="str">
@@ -14732,24 +15525,24 @@
         <v>0,34022020,18491020,184910</v>
       </c>
       <c r="AJ28" s="7">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Energia Reativa Exced (FP)</v>
+      </c>
+      <c r="AB29" s="64" t="str">
         <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA29" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Consumo do Mês (P)</v>
-      </c>
-      <c r="AB29" s="17" t="str">
-        <f>AG36</f>
-        <v>293,59</v>
+        <v>0,340220</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AE29" s="3" t="str">
         <f>LEFT(AI28,FIND(",",AI28,1)-1)</f>
@@ -14760,11 +15553,11 @@
         <v>,340220</v>
       </c>
       <c r="AG29" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0,340220</v>
+      </c>
+      <c r="AH29" s="3">
         <f t="shared" si="10"/>
-        <v>0,340220</v>
-      </c>
-      <c r="AH29" s="3">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AI29" s="3" t="str">
@@ -14772,29 +15565,27 @@
         <v>20,18491020,184910</v>
       </c>
       <c r="AJ29" s="7">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA30" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Demanda de Potência Medida (FP)</v>
+      </c>
+      <c r="AB30" s="64" t="str">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="AA30" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Energia Ativa Injetada (P)</v>
-      </c>
-      <c r="AB30" s="17" t="str">
-        <f t="shared" ref="AB30:AB36" si="14">AG37</f>
-        <v>-293,59</v>
+        <v>20,184910</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AE30" s="3" t="str">
-        <f t="shared" ref="AE30:AE31" si="15">LEFT(AI29,FIND(",",AI29,1)-1)</f>
+        <f t="shared" ref="AE30:AE31" si="13">LEFT(AI29,FIND(",",AI29,1)-1)</f>
         <v>20</v>
       </c>
       <c r="AF30" s="3" t="str">
@@ -14802,39 +15593,39 @@
         <v>,184910</v>
       </c>
       <c r="AG30" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>20,184910</v>
+      </c>
+      <c r="AH30" s="3">
         <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AI30" s="3" t="str">
+        <f t="shared" ref="AI30:AI31" si="14">RIGHT(AI29,AJ29-AH30)</f>
         <v>20,184910</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AJ30" s="7">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="AI30" s="3" t="str">
-        <f t="shared" ref="AI30:AI31" si="16">RIGHT(AI29,AJ29-AH30)</f>
+    </row>
+    <row r="31" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA31" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Demanda Potência Não Consumida (FP)</v>
+      </c>
+      <c r="AB31" s="82" t="str">
+        <f t="shared" si="12"/>
         <v>20,184910</v>
       </c>
-      <c r="AJ30" s="7">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA31" s="17" t="str">
+      <c r="AD31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE31" s="9" t="str">
         <f t="shared" si="13"/>
-        <v>Valor Consumo do Mês (FP)</v>
-      </c>
-      <c r="AB31" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>521,47</v>
-      </c>
-      <c r="AD31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE31" s="9" t="str">
-        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="AF31" s="9" t="str">
@@ -14842,876 +15633,1907 @@
         <v>,184910</v>
       </c>
       <c r="AG31" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>20,184910</v>
+      </c>
+      <c r="AH31" s="9">
         <f t="shared" si="10"/>
-        <v>20,184910</v>
-      </c>
-      <c r="AH31" s="9">
+        <v>9</v>
+      </c>
+      <c r="AI31" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="11">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AI31" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA32" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Energia Ativa Injetada (FP)</v>
-      </c>
-      <c r="AB32" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>-521,47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA33" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Energia Reativa Exced (P)</v>
-      </c>
-      <c r="AB33" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>7,85</v>
-      </c>
-      <c r="AD33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="84">
+        <v>257</v>
+      </c>
+      <c r="C32" s="85">
+        <v>608</v>
+      </c>
+      <c r="D32" s="1" t="e">
+        <f>VLOOKUP($B32&amp;$C32,concat!$B$2:$C$200,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="1" t="e">
+        <f>IF(ISNA(D32),VLOOKUP($B32-1&amp;$C32,concat!$B$2:$C$200,2,0),D32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="1" t="e">
+        <f>IF(ISNA(E32),VLOOKUP($B32+1&amp;$C32,concat!$B$2:$C$200,2,0),E32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="1" t="e">
+        <f>IF(ISNA(F32),VLOOKUP($B32-2&amp;$C32,concat!$B$2:$C$200,2,0),F32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f>IF(ISNA(G32),VLOOKUP($B32+2&amp;$C32,concat!$B$2:$C$200,2,0),G32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <f>IF(ISNA(H32),VLOOKUP($B32-3&amp;$C32,concat!$B$2:$C$200,2,0),H32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f>IF(ISNA(I32),VLOOKUP($B32+3&amp;$C32,concat!$B$2:$C$200,2,0),I32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" s="1" t="e">
+        <f>IF(ISNA(J32),VLOOKUP($B32-4&amp;$C32,concat!$B$2:$C$200,2,0),J32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="1" t="e">
+        <f>IF(ISNA(K32),VLOOKUP($B32+4&amp;$C32,concat!$B$2:$C$200,2,0),K32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="1" t="e">
+        <f>IF(ISNA(L32),VLOOKUP($B32-5&amp;$C32,concat!$B$2:$C$200,2,0),L32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="1" t="e">
+        <f>IF(ISNA(M32),VLOOKUP($B32+5&amp;$C32,concat!$B$2:$C$200,2,0),M32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="1" t="e">
+        <f>IF(ISNA(N32),VLOOKUP($B32-6&amp;$C32,concat!$B$2:$C$200,2,0),N32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="1" t="e">
+        <f>IF(ISNA(O32),VLOOKUP($B32+6&amp;$C32,concat!$B$2:$C$200,2,0),O32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="1" t="e">
+        <f>IF(ISNA(P32),VLOOKUP($B32-7&amp;$C32,concat!$B$2:$C$200,2,0),P32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="1" t="e">
+        <f>IF(ISNA(Q32),VLOOKUP($B32+7&amp;$C32,concat!$B$2:$C$200,2,0),Q32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" s="1" t="e">
+        <f>IF(ISNA(R32),VLOOKUP($B32-8&amp;$C32,concat!$B$2:$C$200,2,0),R32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" s="1" t="e">
+        <f>IF(ISNA(S32),VLOOKUP($B32+8&amp;$C32,concat!$B$2:$C$200,2,0),S32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" s="1" t="e">
+        <f>IF(ISNA(T32),VLOOKUP($B32+9&amp;$C32,concat!$B$2:$C$200,2,0),T32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" s="1" t="e">
+        <f>IF(ISNA(U32),VLOOKUP($B32-9&amp;$C32,concat!$B$2:$C$200,2,0),U32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" s="1" t="e">
+        <f>IF(ISNA(V32),VLOOKUP($B32-10&amp;$C32,concat!$B$2:$C$200,2,0),V32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" s="1" t="e">
+        <f>IF(ISNA(W32),VLOOKUP($B32+10&amp;$C32,concat!$B$2:$C$200,2,0),W32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" s="86" t="e">
+        <f>LEN(X32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" s="87" t="e">
+        <f>RIGHT(X32,Y32-17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa CONSUMO MENSAL c/ tributos (pequeno consumidor)</v>
+      </c>
+      <c r="AB32" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Consumo em kWh</v>
+      </c>
+      <c r="AB33" s="105" t="str">
+        <f>IF(ISNA(AO24),"Grande consumidor ver acima /|\",AO24)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Energia Atv Injetada</v>
+      </c>
+      <c r="AB34" s="105" t="str">
+        <f>IF(ISNA(AO25),"Grande consumidor ver acima /|\",AO25)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+      <c r="AD34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AF33" s="1" t="s">
+      <c r="AJ34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL34" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM34" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN34" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO34" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP34" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="AG33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ33" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA34" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Energia Reativa Exced (FP)</v>
-      </c>
-      <c r="AB34" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>67,16</v>
-      </c>
-      <c r="AD34" s="2"/>
-      <c r="AI34" s="7" t="str">
-        <f>Z28</f>
-        <v>293,59-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AJ34" s="7">
-        <f>LEN(AI34)</f>
+      <c r="AQ34" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR34" s="78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>Tarifa Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="AB35" s="106" t="str">
+        <f>IF(ISNA(AO26),"Grande consumidor ver acima /|\",AO26)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AI35" s="7" t="str">
+        <f>Z36</f>
+        <v>207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AJ35" s="7">
+        <f>LEN(AI35)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA35" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Demanda de Potência Medida (FP)</v>
-      </c>
-      <c r="AB35" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>169,55</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-    </row>
-    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>Valor Demanda Potência Não Consumida (FP)</v>
-      </c>
-      <c r="AB36" s="26" t="str">
-        <f t="shared" si="14"/>
-        <v>16.634,38</v>
-      </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62" t="e">
+        <f>Z45</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR35" s="63" t="e">
+        <f>LEN(AQ35)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="15">
+        <v>293</v>
+      </c>
+      <c r="C36" s="23">
+        <v>568</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>VLOOKUP($B36&amp;$C36,concat!$B$2:$C$200,2,0)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>IF(ISNA(D36),VLOOKUP($B36-1&amp;$C36,concat!$B$2:$C$200,2,0),D36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>IF(ISNA(E36),VLOOKUP($B36+1&amp;$C36,concat!$B$2:$C$200,2,0),E36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f>IF(ISNA(F36),VLOOKUP($B36-2&amp;$C36,concat!$B$2:$C$200,2,0),F36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>IF(ISNA(G36),VLOOKUP($B36+2&amp;$C36,concat!$B$2:$C$200,2,0),G36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>IF(ISNA(H36),VLOOKUP($B36-3&amp;$C36,concat!$B$2:$C$200,2,0),H36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f>IF(ISNA(I36),VLOOKUP($B36+3&amp;$C36,concat!$B$2:$C$200,2,0),I36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f>IF(ISNA(J36),VLOOKUP($B36-4&amp;$C36,concat!$B$2:$C$200,2,0),J36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f>IF(ISNA(K36),VLOOKUP($B36+4&amp;$C36,concat!$B$2:$C$200,2,0),K36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>IF(ISNA(L36),VLOOKUP($B36-5&amp;$C36,concat!$B$2:$C$200,2,0),L36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f>IF(ISNA(M36),VLOOKUP($B36+5&amp;$C36,concat!$B$2:$C$200,2,0),M36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f>IF(ISNA(N36),VLOOKUP($B36-6&amp;$C36,concat!$B$2:$C$200,2,0),N36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>IF(ISNA(O36),VLOOKUP($B36+6&amp;$C36,concat!$B$2:$C$200,2,0),O36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f>IF(ISNA(P36),VLOOKUP($B36-7&amp;$C36,concat!$B$2:$C$200,2,0),P36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f>IF(ISNA(Q36),VLOOKUP($B36+7&amp;$C36,concat!$B$2:$C$200,2,0),Q36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f>IF(ISNA(R36),VLOOKUP($B36-8&amp;$C36,concat!$B$2:$C$200,2,0),R36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f>IF(ISNA(S36),VLOOKUP($B36+8&amp;$C36,concat!$B$2:$C$200,2,0),S36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <f>IF(ISNA(T36),VLOOKUP($B36+9&amp;$C36,concat!$B$2:$C$200,2,0),T36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="V36" s="1" t="str">
+        <f>IF(ISNA(U36),VLOOKUP($B36-9&amp;$C36,concat!$B$2:$C$200,2,0),U36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="W36" s="1" t="str">
+        <f>IF(ISNA(V36),VLOOKUP($B36-10&amp;$C36,concat!$B$2:$C$200,2,0),V36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="X36" s="1" t="str">
+        <f>IF(ISNA(W36),VLOOKUP($B36+10&amp;$C36,concat!$B$2:$C$200,2,0),W36)</f>
+        <v>Valor Total(R$)207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="Y36" s="1">
+        <f>LEN(X36)</f>
+        <v>65</v>
+      </c>
+      <c r="Z36" s="12" t="str">
+        <f>RIGHT(X36,Y36-15)</f>
+        <v>207,04-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AA36" s="30" t="str">
+        <f t="shared" ref="AA36:AA53" si="15">A36</f>
+        <v>VALOR (Consumo x Tarifa) (grande consumidor)</v>
+      </c>
+      <c r="AB36" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AE36" s="3" t="str">
-        <f>LEFT(AI34,FIND(",",AI34,1)-1)</f>
-        <v>293</v>
-      </c>
-      <c r="AF36" s="3" t="str">
-        <f>MID(AI34,SEARCH(",",AI34),3)</f>
-        <v>,59</v>
-      </c>
-      <c r="AG36" s="6" t="str">
-        <f t="shared" ref="AG36:AG43" si="17">_xlfn.CONCAT(AE36,AF36)</f>
-        <v>293,59</v>
-      </c>
-      <c r="AH36" s="3">
-        <f t="shared" ref="AH36:AH43" si="18">LEN(AG36)</f>
-        <v>6</v>
-      </c>
-      <c r="AI36" s="7" t="str">
-        <f>RIGHT(AI34,AJ34-AH36)</f>
-        <v>-293,59521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f t="shared" ref="AJ36:AJ43" si="19">LEN(AI36)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD36" s="2"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="63"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="2">
+      <c r="AA37" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Consumo do Mês (P)</v>
+      </c>
+      <c r="AB37" s="64" t="str">
+        <f>IF(ISNA(AG37),"Pequeno consumidor ver abaixo \|/",AG37)</f>
+        <v>207,04</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE37" s="3" t="str">
+        <f>LEFT(AI35,FIND(",",AI35,1)-1)</f>
+        <v>207</v>
+      </c>
+      <c r="AF37" s="3" t="str">
+        <f>MID(AI35,SEARCH(",",AI35),3)</f>
+        <v>,04</v>
+      </c>
+      <c r="AG37" s="6" t="str">
+        <f t="shared" ref="AG37:AG44" si="16">_xlfn.CONCAT(AE37,AF37)</f>
+        <v>207,04</v>
+      </c>
+      <c r="AH37" s="3">
+        <f t="shared" ref="AH37:AH44" si="17">LEN(AG37)</f>
+        <v>6</v>
+      </c>
+      <c r="AI37" s="7" t="str">
+        <f>RIGHT(AI35,AJ35-AH37)</f>
+        <v>-207,04670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AJ37" s="7">
+        <f t="shared" ref="AJ37:AJ44" si="18">LEN(AI37)</f>
+        <v>44</v>
+      </c>
+      <c r="AL37" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM37" s="62" t="e">
+        <f>LEFT(AQ35,FIND(",",AQ35,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN37" s="62" t="e">
+        <f>MID(AQ35,SEARCH(",",AQ35),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO37" s="66" t="e">
+        <f>_xlfn.CONCAT(AM37,AN37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP37" s="62" t="e">
+        <f>LEN(AO37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ37" s="62" t="e">
+        <f>RIGHT(AQ35,AR35-AP37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR37" s="63" t="e">
+        <f>LEN(AQ37)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="AA38" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Energia Ativa Injetada (P)</v>
+      </c>
+      <c r="AB38" s="64" t="str">
+        <f t="shared" ref="AB38:AB44" si="19">IF(ISNA(AG38),"Pequeno consumidor ver abaixo \|/",AG38)</f>
+        <v>-207,04</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE38" s="3" t="str">
+        <f>LEFT(AI37,FIND(",",AI37,1)-1)</f>
+        <v>-207</v>
+      </c>
+      <c r="AF38" s="3" t="str">
+        <f>MID(AI37,SEARCH(",",AI37),3)</f>
+        <v>,04</v>
+      </c>
+      <c r="AG38" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>-207,04</v>
+      </c>
+      <c r="AH38" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="AI38" s="7" t="str">
+        <f>RIGHT(AI37,AJ37-AH38)</f>
+        <v>670,26-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AJ38" s="7">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="AL38" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM38" s="62" t="e">
+        <f>LEFT(AQ37,FIND(",",AQ37,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN38" s="62" t="e">
+        <f>MID(AQ37,SEARCH(",",AQ37),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO38" s="66" t="e">
+        <f>_xlfn.CONCAT(AM38,AN38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP38" s="62" t="e">
+        <f>LEN(AO38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ38" s="62" t="e">
+        <f>RIGHT(AQ37,AR37-AP38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR38" s="63" t="e">
+        <f>LEN(AQ38)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Consumo do Mês (FP)</v>
+      </c>
+      <c r="AB39" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>670,26</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="3" t="str">
+        <f>LEFT(AI38,FIND(",",AI38,1)-1)</f>
+        <v>670</v>
+      </c>
+      <c r="AF39" s="3" t="str">
+        <f>MID(AI38,SEARCH(",",AI38),3)</f>
+        <v>,26</v>
+      </c>
+      <c r="AG39" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>670,26</v>
+      </c>
+      <c r="AH39" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AI39" s="7" t="str">
+        <f>RIGHT(AI38,AJ38-AH39)</f>
+        <v>-670,265,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AJ39" s="7">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="AL39" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM39" s="71" t="e">
+        <f>LEFT(AQ38,FIND(",",AQ38,1)-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN39" s="71" t="e">
+        <f>MID(AQ38,SEARCH(",",AQ38),3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO39" s="72" t="e">
+        <f>_xlfn.CONCAT(AM39,AN39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP39" s="71" t="e">
+        <f>LEN(AO39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ39" s="71" t="e">
+        <f>RIGHT(AQ38,AR38-AP39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR39" s="73" t="e">
+        <f>LEN(AQ39)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA40" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Energia Ativa Injetada (FP)</v>
+      </c>
+      <c r="AB40" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>-670,26</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE40" s="3" t="str">
+        <f>LEFT(AI39,FIND(",",AI39,1)-1)</f>
+        <v>-670</v>
+      </c>
+      <c r="AF40" s="3" t="str">
+        <f>MID(AI38,SEARCH(",",AI38),3)</f>
+        <v>,26</v>
+      </c>
+      <c r="AG40" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>-670,26</v>
+      </c>
+      <c r="AH40" s="3">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="AI40" s="7" t="str">
+        <f>RIGHT(AI39,AJ39-AH40)</f>
+        <v>5,0068,23169,5516.634,38</v>
+      </c>
+      <c r="AJ40" s="7">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA41" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Energia Reativa Exced (P)</v>
+      </c>
+      <c r="AB41" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>5,00</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE41" s="3" t="str">
+        <f>LEFT(AI40,FIND(",",AI40,1)-1)</f>
+        <v>5</v>
+      </c>
+      <c r="AF41" s="3" t="str">
+        <f>MID(AI40,SEARCH(",",AI40),3)</f>
+        <v>,00</v>
+      </c>
+      <c r="AG41" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>5,00</v>
+      </c>
+      <c r="AH41" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AI41" s="7" t="str">
+        <f>RIGHT(AI40,AJ40-AH41)</f>
+        <v>68,23169,5516.634,38</v>
+      </c>
+      <c r="AJ41" s="7">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA42" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Energia Reativa Exced (FP)</v>
+      </c>
+      <c r="AB42" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>68,23</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE42" s="3" t="str">
+        <f>LEFT(AI41,FIND(",",AI41,1)-1)</f>
+        <v>68</v>
+      </c>
+      <c r="AF42" s="3" t="str">
+        <f>MID(AI41,SEARCH(",",AI41),3)</f>
+        <v>,23</v>
+      </c>
+      <c r="AG42" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>68,23</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AI42" s="7" t="str">
+        <f>RIGHT(AI41,AJ41-AH42)</f>
+        <v>169,5516.634,38</v>
+      </c>
+      <c r="AJ42" s="7">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA43" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Demanda de Potência Medida (FP)</v>
+      </c>
+      <c r="AB43" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>169,55</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE43" s="3" t="str">
+        <f t="shared" ref="AE43:AE44" si="20">LEFT(AI42,FIND(",",AI42,1)-1)</f>
+        <v>169</v>
+      </c>
+      <c r="AF43" s="3" t="str">
+        <f>MID(AI42,SEARCH(",",AI42),3)</f>
+        <v>,55</v>
+      </c>
+      <c r="AG43" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>169,55</v>
+      </c>
+      <c r="AH43" s="3">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AI43" s="7" t="str">
+        <f t="shared" ref="AI43:AI44" si="21">RIGHT(AI42,AJ42-AH43)</f>
+        <v>16.634,38</v>
+      </c>
+      <c r="AJ43" s="7">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Demanda Potência Não Consumida (FP)</v>
+      </c>
+      <c r="AB44" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>16.634,38</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE44" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>16.634</v>
+      </c>
+      <c r="AF44" s="9" t="str">
+        <f>MID(AI43,SEARCH(",",AI43),3)</f>
+        <v>,38</v>
+      </c>
+      <c r="AG44" s="10" t="str">
+        <f t="shared" si="16"/>
+        <v>16.634,38</v>
+      </c>
+      <c r="AH44" s="9">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="AI44" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AJ44" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A45" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="75">
+        <v>293</v>
+      </c>
+      <c r="C45" s="76">
+        <v>608</v>
+      </c>
+      <c r="D45" s="1" t="e">
+        <f>VLOOKUP($B45&amp;$C45,concat!$B$2:$C$200,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="1" t="e">
+        <f>IF(ISNA(D45),VLOOKUP($B45-1&amp;$C45,concat!$B$2:$C$200,2,0),D45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="1" t="e">
+        <f>IF(ISNA(E45),VLOOKUP($B45+1&amp;$C45,concat!$B$2:$C$200,2,0),E45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="1" t="e">
+        <f>IF(ISNA(F45),VLOOKUP($B45-2&amp;$C45,concat!$B$2:$C$200,2,0),F45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="1" t="e">
+        <f>IF(ISNA(G45),VLOOKUP($B45+2&amp;$C45,concat!$B$2:$C$200,2,0),G45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" s="1" t="e">
+        <f>IF(ISNA(H45),VLOOKUP($B45-3&amp;$C45,concat!$B$2:$C$200,2,0),H45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" s="1" t="e">
+        <f>IF(ISNA(I45),VLOOKUP($B45+3&amp;$C45,concat!$B$2:$C$200,2,0),I45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" s="1" t="e">
+        <f>IF(ISNA(J45),VLOOKUP($B45-4&amp;$C45,concat!$B$2:$C$200,2,0),J45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="1" t="e">
+        <f>IF(ISNA(K45),VLOOKUP($B45+4&amp;$C45,concat!$B$2:$C$200,2,0),K45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" s="1" t="e">
+        <f>IF(ISNA(L45),VLOOKUP($B45-5&amp;$C45,concat!$B$2:$C$200,2,0),L45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" s="1" t="e">
+        <f>IF(ISNA(M45),VLOOKUP($B45+5&amp;$C45,concat!$B$2:$C$200,2,0),M45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" s="1" t="e">
+        <f>IF(ISNA(N45),VLOOKUP($B45-6&amp;$C45,concat!$B$2:$C$200,2,0),N45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" s="1" t="e">
+        <f>IF(ISNA(O45),VLOOKUP($B45+6&amp;$C45,concat!$B$2:$C$200,2,0),O45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" s="1" t="e">
+        <f>IF(ISNA(P45),VLOOKUP($B45-7&amp;$C45,concat!$B$2:$C$200,2,0),P45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R45" s="1" t="e">
+        <f>IF(ISNA(Q45),VLOOKUP($B45+7&amp;$C45,concat!$B$2:$C$200,2,0),Q45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" s="1" t="e">
+        <f>IF(ISNA(R45),VLOOKUP($B45-8&amp;$C45,concat!$B$2:$C$200,2,0),R45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" s="1" t="e">
+        <f>IF(ISNA(S45),VLOOKUP($B45+8&amp;$C45,concat!$B$2:$C$200,2,0),S45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" s="1" t="e">
+        <f>IF(ISNA(T45),VLOOKUP($B45+9&amp;$C45,concat!$B$2:$C$200,2,0),T45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V45" s="1" t="e">
+        <f>IF(ISNA(U45),VLOOKUP($B45-9&amp;$C45,concat!$B$2:$C$200,2,0),U45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W45" s="1" t="e">
+        <f>IF(ISNA(V45),VLOOKUP($B45-10&amp;$C45,concat!$B$2:$C$200,2,0),V45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X45" s="1" t="e">
+        <f>IF(ISNA(W45),VLOOKUP($B45+10&amp;$C45,concat!$B$2:$C$200,2,0),W45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="77" t="e">
+        <f>LEN(X45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z45" s="78" t="e">
+        <f>RIGHT(X45,Y45-15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA45" s="74" t="str">
+        <f t="shared" si="15"/>
+        <v>VALOR (Consumo x Tarifa) (pequeno consumidor)</v>
+      </c>
+      <c r="AB45" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Consumo em kWh</v>
+      </c>
+      <c r="AB46" s="64" t="str">
+        <f>IF(ISNA(AO37),"Grande consumidor ver acima /|\",AO37)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Energia Atv Injetada</v>
+      </c>
+      <c r="AB47" s="64" t="str">
+        <f>IF(ISNA(AO38),"Grande consumidor ver acima /|\",AO38)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+      <c r="AD47" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE47" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF47" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG47" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH47" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI47" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ47" s="78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="80" t="str">
+        <f t="shared" si="15"/>
+        <v>Valor Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="AB48" s="82" t="str">
+        <f>IF(ISNA(AO39),"Grande consumidor ver acima /|\",AO39)</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="62"/>
+      <c r="AF48" s="62"/>
+      <c r="AG48" s="62"/>
+      <c r="AH48" s="62"/>
+      <c r="AI48" s="62" t="str">
+        <f>Z49</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="AJ48" s="63">
+        <f>LEN(AI48)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="84">
+        <v>304</v>
+      </c>
+      <c r="C49" s="85">
+        <v>528</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>VLOOKUP($B49&amp;$C49,concat!$B$2:$C$200,2,0)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>IF(ISNA(D49),VLOOKUP($B49-1&amp;$C49,concat!$B$2:$C$200,2,0),D49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>IF(ISNA(E49),VLOOKUP($B49+1&amp;$C49,concat!$B$2:$C$200,2,0),E49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f>IF(ISNA(F49),VLOOKUP($B49-2&amp;$C49,concat!$B$2:$C$200,2,0),F49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f>IF(ISNA(G49),VLOOKUP($B49+2&amp;$C49,concat!$B$2:$C$200,2,0),G49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>IF(ISNA(H49),VLOOKUP($B49-3&amp;$C49,concat!$B$2:$C$200,2,0),H49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="J49" s="1" t="str">
+        <f>IF(ISNA(I49),VLOOKUP($B49+3&amp;$C49,concat!$B$2:$C$200,2,0),I49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f>IF(ISNA(J49),VLOOKUP($B49-4&amp;$C49,concat!$B$2:$C$200,2,0),J49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f>IF(ISNA(K49),VLOOKUP($B49+4&amp;$C49,concat!$B$2:$C$200,2,0),K49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>IF(ISNA(L49),VLOOKUP($B49-5&amp;$C49,concat!$B$2:$C$200,2,0),L49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="N49" s="1" t="str">
+        <f>IF(ISNA(M49),VLOOKUP($B49+5&amp;$C49,concat!$B$2:$C$200,2,0),M49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <f>IF(ISNA(N49),VLOOKUP($B49-6&amp;$C49,concat!$B$2:$C$200,2,0),N49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="P49" s="1" t="str">
+        <f>IF(ISNA(O49),VLOOKUP($B49+6&amp;$C49,concat!$B$2:$C$200,2,0),O49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <f>IF(ISNA(P49),VLOOKUP($B49-7&amp;$C49,concat!$B$2:$C$200,2,0),P49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="R49" s="1" t="str">
+        <f>IF(ISNA(Q49),VLOOKUP($B49+7&amp;$C49,concat!$B$2:$C$200,2,0),Q49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <f>IF(ISNA(R49),VLOOKUP($B49-8&amp;$C49,concat!$B$2:$C$200,2,0),R49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="T49" s="1" t="str">
+        <f>IF(ISNA(S49),VLOOKUP($B49+8&amp;$C49,concat!$B$2:$C$200,2,0),S49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="U49" s="1" t="str">
+        <f>IF(ISNA(T49),VLOOKUP($B49+9&amp;$C49,concat!$B$2:$C$200,2,0),T49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <f>IF(ISNA(U49),VLOOKUP($B49-9&amp;$C49,concat!$B$2:$C$200,2,0),U49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="W49" s="1" t="str">
+        <f>IF(ISNA(V49),VLOOKUP($B49-10&amp;$C49,concat!$B$2:$C$200,2,0),V49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="X49" s="1" t="str">
+        <f>IF(ISNA(W49),VLOOKUP($B49+10&amp;$C49,concat!$B$2:$C$200,2,0),W49)</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="Y49" s="86">
+        <f>LEN(X49)</f>
+        <v>21</v>
+      </c>
+      <c r="Z49" s="87" t="str">
+        <f>X49</f>
+        <v>46,1764,16320,8241,51</v>
+      </c>
+      <c r="AA49" s="88" t="str">
+        <f t="shared" si="15"/>
+        <v>Extras (grande consumidor)</v>
+      </c>
+      <c r="AB49" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="62"/>
+      <c r="AG49" s="62"/>
+      <c r="AH49" s="62"/>
+      <c r="AI49" s="62"/>
+      <c r="AJ49" s="63"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="91" t="str">
+        <f>IF(ISNA(Z49),VLOOKUP(308&amp;552,concat!B:C,2,0),AG50)</f>
+        <v>46,17</v>
+      </c>
+      <c r="AA50" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>Contrib. Ilum. Publ.</v>
+      </c>
+      <c r="AB50" s="92" t="str">
+        <f>IF(ISNA(Z50),0,Z50)</f>
+        <v>46,17</v>
+      </c>
+      <c r="AD50" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE50" s="62" t="str">
+        <f>LEFT(AI48,FIND(",",AI48,1)-1)</f>
+        <v>46</v>
+      </c>
+      <c r="AF50" s="62" t="str">
+        <f>MID(AI48,SEARCH(",",AI48),3)</f>
+        <v>,17</v>
+      </c>
+      <c r="AG50" s="66" t="str">
+        <f>_xlfn.CONCAT(AE50,AF50)</f>
+        <v>46,17</v>
+      </c>
+      <c r="AH50" s="62">
+        <f>LEN(AG50)</f>
+        <v>5</v>
+      </c>
+      <c r="AI50" s="62" t="str">
+        <f>RIGHT(AI48,AJ48-AH50)</f>
+        <v>64,16320,8241,51</v>
+      </c>
+      <c r="AJ50" s="63">
+        <f>LEN(AI50)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="91"/>
+      <c r="AA51" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>JUROS MORA</v>
+      </c>
+      <c r="AB51" s="92" t="str">
+        <f>IF(ISNA(AG51),0,AG51)</f>
+        <v>64,16</v>
+      </c>
+      <c r="AD51" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE51" s="62" t="str">
+        <f>LEFT(AI50,FIND(",",AI50,1)-1)</f>
+        <v>64</v>
+      </c>
+      <c r="AF51" s="62" t="str">
+        <f>MID(AI50,SEARCH(",",AI50),3)</f>
+        <v>,16</v>
+      </c>
+      <c r="AG51" s="66" t="str">
+        <f>_xlfn.CONCAT(AE51,AF51)</f>
+        <v>64,16</v>
+      </c>
+      <c r="AH51" s="62">
+        <f>LEN(AG51)</f>
+        <v>5</v>
+      </c>
+      <c r="AI51" s="62" t="str">
+        <f>RIGHT(AI50,AJ50-AH51)</f>
+        <v>320,8241,51</v>
+      </c>
+      <c r="AJ51" s="63">
+        <f>LEN(AI51)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="91"/>
+      <c r="N52" s="91"/>
+      <c r="O52" s="91"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="91"/>
+      <c r="R52" s="91"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="91"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="91"/>
+      <c r="W52" s="91"/>
+      <c r="X52" s="91"/>
+      <c r="Y52" s="91"/>
+      <c r="Z52" s="91"/>
+      <c r="AA52" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>MULTA</v>
+      </c>
+      <c r="AB52" s="92" t="str">
+        <f>IF(ISNA(AG52),0,AG52)</f>
+        <v>320,82</v>
+      </c>
+      <c r="AD52" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE52" s="62" t="str">
+        <f>LEFT(AI51,FIND(",",AI51,1)-1)</f>
+        <v>320</v>
+      </c>
+      <c r="AF52" s="62" t="str">
+        <f>MID(AI51,SEARCH(",",AI51),3)</f>
+        <v>,82</v>
+      </c>
+      <c r="AG52" s="66" t="str">
+        <f>_xlfn.CONCAT(AE52,AF52)</f>
+        <v>320,82</v>
+      </c>
+      <c r="AH52" s="62">
+        <f>LEN(AG52)</f>
+        <v>6</v>
+      </c>
+      <c r="AI52" s="62" t="str">
+        <f>RIGHT(AI51,AJ51-AH52)</f>
+        <v>41,51</v>
+      </c>
+      <c r="AJ52" s="63">
+        <f>LEN(AI52)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
+      <c r="W53" s="96"/>
+      <c r="X53" s="96"/>
+      <c r="Y53" s="96"/>
+      <c r="Z53" s="96"/>
+      <c r="AA53" s="97" t="str">
+        <f t="shared" si="15"/>
+        <v>ATUALIZACAO MONETARIA</v>
+      </c>
+      <c r="AB53" s="98" t="str">
+        <f>IF(ISNA(AG53),0,AG53)</f>
+        <v>41,51</v>
+      </c>
+      <c r="AD53" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE53" s="71" t="str">
+        <f>LEFT(AI52,FIND(",",AI52,1)-1)</f>
+        <v>41</v>
+      </c>
+      <c r="AF53" s="71" t="str">
+        <f>MID(AI52,SEARCH(",",AI52),3)</f>
+        <v>,51</v>
+      </c>
+      <c r="AG53" s="72" t="str">
+        <f>_xlfn.CONCAT(AE53,AF53)</f>
+        <v>41,51</v>
+      </c>
+      <c r="AH53" s="102">
+        <f>LEN(AG53)</f>
+        <v>5</v>
+      </c>
+      <c r="AI53" s="71" t="str">
+        <f>RIGHT(AI52,AJ52-AH53)</f>
+        <v/>
+      </c>
+      <c r="AJ53" s="73">
+        <f>LEN(AI53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="100">
         <v>373</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C54" s="12">
         <v>84</v>
       </c>
-      <c r="D37" s="3" t="str">
-        <f>VLOOKUP($B37&amp;$C37,concat!$B$2:$C$200,2,0)</f>
+      <c r="D54" s="1" t="str">
+        <f>VLOOKUP($B54&amp;$C54,concat!$B$2:$C$200,2,0)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="E37" s="3" t="str">
-        <f>IF(ISNA(D37),VLOOKUP($B37-1&amp;$C37,concat!$B$2:$C$200,2,0),D37)</f>
+      <c r="E54" s="1" t="str">
+        <f>IF(ISNA(D54),VLOOKUP($B54-1&amp;$C54,concat!$B$2:$C$200,2,0),D54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="F37" s="3" t="str">
-        <f>IF(ISNA(E37),VLOOKUP($B37+1&amp;$C37,concat!$B$2:$C$200,2,0),E37)</f>
+      <c r="F54" s="1" t="str">
+        <f>IF(ISNA(E54),VLOOKUP($B54+1&amp;$C54,concat!$B$2:$C$200,2,0),E54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="G37" s="3" t="str">
-        <f>IF(ISNA(F37),VLOOKUP($B37-2&amp;$C37,concat!$B$2:$C$200,2,0),F37)</f>
+      <c r="G54" s="1" t="str">
+        <f>IF(ISNA(F54),VLOOKUP($B54-2&amp;$C54,concat!$B$2:$C$200,2,0),F54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="H37" s="3" t="str">
-        <f>IF(ISNA(G37),VLOOKUP($B37+2&amp;$C37,concat!$B$2:$C$200,2,0),G37)</f>
+      <c r="H54" s="1" t="str">
+        <f>IF(ISNA(G54),VLOOKUP($B54+2&amp;$C54,concat!$B$2:$C$200,2,0),G54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="I37" s="3" t="str">
-        <f>IF(ISNA(H37),VLOOKUP($B37-3&amp;$C37,concat!$B$2:$C$200,2,0),H37)</f>
+      <c r="I54" s="1" t="str">
+        <f>IF(ISNA(H54),VLOOKUP($B54-3&amp;$C54,concat!$B$2:$C$200,2,0),H54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="J37" s="3" t="str">
-        <f>IF(ISNA(I37),VLOOKUP($B37+3&amp;$C37,concat!$B$2:$C$200,2,0),I37)</f>
+      <c r="J54" s="1" t="str">
+        <f>IF(ISNA(I54),VLOOKUP($B54+3&amp;$C54,concat!$B$2:$C$200,2,0),I54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="K37" s="3" t="str">
-        <f>IF(ISNA(J37),VLOOKUP($B37-4&amp;$C37,concat!$B$2:$C$200,2,0),J37)</f>
+      <c r="K54" s="1" t="str">
+        <f>IF(ISNA(J54),VLOOKUP($B54-4&amp;$C54,concat!$B$2:$C$200,2,0),J54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="L37" s="3" t="str">
-        <f>IF(ISNA(K37),VLOOKUP($B37+4&amp;$C37,concat!$B$2:$C$200,2,0),K37)</f>
+      <c r="L54" s="1" t="str">
+        <f>IF(ISNA(K54),VLOOKUP($B54+4&amp;$C54,concat!$B$2:$C$200,2,0),K54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="M37" s="3" t="str">
-        <f>IF(ISNA(L37),VLOOKUP($B37-5&amp;$C37,concat!$B$2:$C$200,2,0),L37)</f>
+      <c r="M54" s="1" t="str">
+        <f>IF(ISNA(L54),VLOOKUP($B54-5&amp;$C54,concat!$B$2:$C$200,2,0),L54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="N37" s="3" t="str">
-        <f>IF(ISNA(M37),VLOOKUP($B37+5&amp;$C37,concat!$B$2:$C$200,2,0),M37)</f>
+      <c r="N54" s="1" t="str">
+        <f>IF(ISNA(M54),VLOOKUP($B54+5&amp;$C54,concat!$B$2:$C$200,2,0),M54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="O37" s="3" t="str">
-        <f>IF(ISNA(N37),VLOOKUP($B37-6&amp;$C37,concat!$B$2:$C$200,2,0),N37)</f>
+      <c r="O54" s="1" t="str">
+        <f>IF(ISNA(N54),VLOOKUP($B54-6&amp;$C54,concat!$B$2:$C$200,2,0),N54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="P37" s="3" t="str">
-        <f>IF(ISNA(O37),VLOOKUP($B37+6&amp;$C37,concat!$B$2:$C$200,2,0),O37)</f>
+      <c r="P54" s="1" t="str">
+        <f>IF(ISNA(O54),VLOOKUP($B54+6&amp;$C54,concat!$B$2:$C$200,2,0),O54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="Q37" s="3" t="str">
-        <f>IF(ISNA(P37),VLOOKUP($B37-7&amp;$C37,concat!$B$2:$C$200,2,0),P37)</f>
+      <c r="Q54" s="1" t="str">
+        <f>IF(ISNA(P54),VLOOKUP($B54-7&amp;$C54,concat!$B$2:$C$200,2,0),P54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="R37" s="3" t="str">
-        <f>IF(ISNA(Q37),VLOOKUP($B37+7&amp;$C37,concat!$B$2:$C$200,2,0),Q37)</f>
+      <c r="R54" s="1" t="str">
+        <f>IF(ISNA(Q54),VLOOKUP($B54+7&amp;$C54,concat!$B$2:$C$200,2,0),Q54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="S37" s="3" t="str">
-        <f>IF(ISNA(R37),VLOOKUP($B37-8&amp;$C37,concat!$B$2:$C$200,2,0),R37)</f>
+      <c r="S54" s="1" t="str">
+        <f>IF(ISNA(R54),VLOOKUP($B54-8&amp;$C54,concat!$B$2:$C$200,2,0),R54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="T37" s="3" t="str">
-        <f>IF(ISNA(S37),VLOOKUP($B37+8&amp;$C37,concat!$B$2:$C$200,2,0),S37)</f>
+      <c r="T54" s="1" t="str">
+        <f>IF(ISNA(S54),VLOOKUP($B54+8&amp;$C54,concat!$B$2:$C$200,2,0),S54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="U37" s="3" t="str">
-        <f>IF(ISNA(T37),VLOOKUP($B37+9&amp;$C37,concat!$B$2:$C$200,2,0),T37)</f>
+      <c r="U54" s="1" t="str">
+        <f>IF(ISNA(T54),VLOOKUP($B54+9&amp;$C54,concat!$B$2:$C$200,2,0),T54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="V37" s="3" t="str">
-        <f>IF(ISNA(U37),VLOOKUP($B37-9&amp;$C37,concat!$B$2:$C$200,2,0),U37)</f>
+      <c r="V54" s="1" t="str">
+        <f>IF(ISNA(U54),VLOOKUP($B54-9&amp;$C54,concat!$B$2:$C$200,2,0),U54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="W37" s="3" t="str">
-        <f>IF(ISNA(V37),VLOOKUP($B37-10&amp;$C37,concat!$B$2:$C$200,2,0),V37)</f>
+      <c r="W54" s="1" t="str">
+        <f>IF(ISNA(V54),VLOOKUP($B54-10&amp;$C54,concat!$B$2:$C$200,2,0),V54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="X37" s="3" t="str">
-        <f>IF(ISNA(W37),VLOOKUP($B37+10&amp;$C37,concat!$B$2:$C$200,2,0),W37)</f>
+      <c r="X54" s="1" t="str">
+        <f>IF(ISNA(W54),VLOOKUP($B54+10&amp;$C54,concat!$B$2:$C$200,2,0),W54)</f>
         <v>CPF/CNPJ41.628.717/0001-60</v>
       </c>
-      <c r="Y37" s="3">
-        <f>LEN(X37)</f>
+      <c r="Y54" s="1">
+        <f>LEN(X54)</f>
         <v>26</v>
       </c>
-      <c r="Z37" s="3" t="str">
-        <f>RIGHT(X37,Y37-8)</f>
+      <c r="Z54" s="1" t="str">
+        <f>RIGHT(X54,Y54-8)</f>
         <v>41.628.717/0001-60</v>
       </c>
-      <c r="AA37" s="17" t="str">
+      <c r="AA54" s="99" t="str">
         <f t="shared" si="0"/>
         <v>CPF/CNPJ</v>
       </c>
-      <c r="AB37" s="17" t="str">
-        <f>Z37</f>
+      <c r="AB54" s="99" t="str">
+        <f>Z54</f>
         <v>41.628.717/0001-60</v>
       </c>
-      <c r="AD37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE37" s="3" t="str">
-        <f>LEFT(AI36,FIND(",",AI36,1)-1)</f>
-        <v>-293</v>
-      </c>
-      <c r="AF37" s="3" t="str">
-        <f>MID(AI36,SEARCH(",",AI36),3)</f>
-        <v>,59</v>
-      </c>
-      <c r="AG37" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>-293,59</v>
-      </c>
-      <c r="AH37" s="3">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AI37" s="7" t="str">
-        <f>RIGHT(AI36,AJ36-AH37)</f>
-        <v>521,47-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AJ37" s="7">
-        <f t="shared" si="19"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    </row>
+    <row r="55" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B55" s="8">
         <v>435</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C55" s="11">
         <v>673</v>
       </c>
-      <c r="D38" s="3" t="str">
-        <f>VLOOKUP($B38&amp;$C38,concat!$B$2:$C$200,2,0)</f>
+      <c r="D55" s="9" t="str">
+        <f>VLOOKUP($B55&amp;$C55,concat!$B$2:$C$200,2,0)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="E38" s="3" t="str">
-        <f>IF(ISNA(D38),VLOOKUP($B38-1&amp;$C38,concat!$B$2:$C$200,2,0),D38)</f>
+      <c r="E55" s="9" t="str">
+        <f>IF(ISNA(D55),VLOOKUP($B55-1&amp;$C55,concat!$B$2:$C$200,2,0),D55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="F38" s="3" t="str">
-        <f>IF(ISNA(E38),VLOOKUP($B38+1&amp;$C38,concat!$B$2:$C$200,2,0),E38)</f>
+      <c r="F55" s="9" t="str">
+        <f>IF(ISNA(E55),VLOOKUP($B55+1&amp;$C55,concat!$B$2:$C$200,2,0),E55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="G38" s="3" t="str">
-        <f>IF(ISNA(F38),VLOOKUP($B38-2&amp;$C38,concat!$B$2:$C$200,2,0),F38)</f>
+      <c r="G55" s="9" t="str">
+        <f>IF(ISNA(F55),VLOOKUP($B55-2&amp;$C55,concat!$B$2:$C$200,2,0),F55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="H38" s="3" t="str">
-        <f>IF(ISNA(G38),VLOOKUP($B38+2&amp;$C38,concat!$B$2:$C$200,2,0),G38)</f>
+      <c r="H55" s="9" t="str">
+        <f>IF(ISNA(G55),VLOOKUP($B55+2&amp;$C55,concat!$B$2:$C$200,2,0),G55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="I38" s="3" t="str">
-        <f>IF(ISNA(H38),VLOOKUP($B38-3&amp;$C38,concat!$B$2:$C$200,2,0),H38)</f>
+      <c r="I55" s="9" t="str">
+        <f>IF(ISNA(H55),VLOOKUP($B55-3&amp;$C55,concat!$B$2:$C$200,2,0),H55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="J38" s="3" t="str">
-        <f>IF(ISNA(I38),VLOOKUP($B38+3&amp;$C38,concat!$B$2:$C$200,2,0),I38)</f>
+      <c r="J55" s="9" t="str">
+        <f>IF(ISNA(I55),VLOOKUP($B55+3&amp;$C55,concat!$B$2:$C$200,2,0),I55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="K38" s="3" t="str">
-        <f>IF(ISNA(J38),VLOOKUP($B38-4&amp;$C38,concat!$B$2:$C$200,2,0),J38)</f>
+      <c r="K55" s="9" t="str">
+        <f>IF(ISNA(J55),VLOOKUP($B55-4&amp;$C55,concat!$B$2:$C$200,2,0),J55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="L38" s="3" t="str">
-        <f>IF(ISNA(K38),VLOOKUP($B38+4&amp;$C38,concat!$B$2:$C$200,2,0),K38)</f>
+      <c r="L55" s="9" t="str">
+        <f>IF(ISNA(K55),VLOOKUP($B55+4&amp;$C55,concat!$B$2:$C$200,2,0),K55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="M38" s="3" t="str">
-        <f>IF(ISNA(L38),VLOOKUP($B38-5&amp;$C38,concat!$B$2:$C$200,2,0),L38)</f>
+      <c r="M55" s="9" t="str">
+        <f>IF(ISNA(L55),VLOOKUP($B55-5&amp;$C55,concat!$B$2:$C$200,2,0),L55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="N38" s="3" t="str">
-        <f>IF(ISNA(M38),VLOOKUP($B38+5&amp;$C38,concat!$B$2:$C$200,2,0),M38)</f>
+      <c r="N55" s="9" t="str">
+        <f>IF(ISNA(M55),VLOOKUP($B55+5&amp;$C55,concat!$B$2:$C$200,2,0),M55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="O38" s="3" t="str">
-        <f>IF(ISNA(N38),VLOOKUP($B38-6&amp;$C38,concat!$B$2:$C$200,2,0),N38)</f>
+      <c r="O55" s="9" t="str">
+        <f>IF(ISNA(N55),VLOOKUP($B55-6&amp;$C55,concat!$B$2:$C$200,2,0),N55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="P38" s="3" t="str">
-        <f>IF(ISNA(O38),VLOOKUP($B38+6&amp;$C38,concat!$B$2:$C$200,2,0),O38)</f>
+      <c r="P55" s="9" t="str">
+        <f>IF(ISNA(O55),VLOOKUP($B55+6&amp;$C55,concat!$B$2:$C$200,2,0),O55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="Q38" s="3" t="str">
-        <f>IF(ISNA(P38),VLOOKUP($B38-7&amp;$C38,concat!$B$2:$C$200,2,0),P38)</f>
+      <c r="Q55" s="9" t="str">
+        <f>IF(ISNA(P55),VLOOKUP($B55-7&amp;$C55,concat!$B$2:$C$200,2,0),P55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="R38" s="3" t="str">
-        <f>IF(ISNA(Q38),VLOOKUP($B38+7&amp;$C38,concat!$B$2:$C$200,2,0),Q38)</f>
+      <c r="R55" s="9" t="str">
+        <f>IF(ISNA(Q55),VLOOKUP($B55+7&amp;$C55,concat!$B$2:$C$200,2,0),Q55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="S38" s="3" t="str">
-        <f>IF(ISNA(R38),VLOOKUP($B38-8&amp;$C38,concat!$B$2:$C$200,2,0),R38)</f>
+      <c r="S55" s="9" t="str">
+        <f>IF(ISNA(R55),VLOOKUP($B55-8&amp;$C55,concat!$B$2:$C$200,2,0),R55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="T38" s="3" t="str">
-        <f>IF(ISNA(S38),VLOOKUP($B38+8&amp;$C38,concat!$B$2:$C$200,2,0),S38)</f>
+      <c r="T55" s="9" t="str">
+        <f>IF(ISNA(S55),VLOOKUP($B55+8&amp;$C55,concat!$B$2:$C$200,2,0),S55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="U38" s="3" t="str">
-        <f>IF(ISNA(T38),VLOOKUP($B38+9&amp;$C38,concat!$B$2:$C$200,2,0),T38)</f>
+      <c r="U55" s="9" t="str">
+        <f>IF(ISNA(T55),VLOOKUP($B55+9&amp;$C55,concat!$B$2:$C$200,2,0),T55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="V38" s="3" t="str">
-        <f>IF(ISNA(U38),VLOOKUP($B38-9&amp;$C38,concat!$B$2:$C$200,2,0),U38)</f>
+      <c r="V55" s="9" t="str">
+        <f>IF(ISNA(U55),VLOOKUP($B55-9&amp;$C55,concat!$B$2:$C$200,2,0),U55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="W38" s="3" t="str">
-        <f>IF(ISNA(V38),VLOOKUP($B38-10&amp;$C38,concat!$B$2:$C$200,2,0),V38)</f>
+      <c r="W55" s="9" t="str">
+        <f>IF(ISNA(V55),VLOOKUP($B55-10&amp;$C55,concat!$B$2:$C$200,2,0),V55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="X38" s="3" t="str">
-        <f>IF(ISNA(W38),VLOOKUP($B38+10&amp;$C38,concat!$B$2:$C$200,2,0),W38)</f>
+      <c r="X55" s="9" t="str">
+        <f>IF(ISNA(W55),VLOOKUP($B55+10&amp;$C55,concat!$B$2:$C$200,2,0),W55)</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="AA38" s="17" t="str">
-        <f>A38</f>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="26" t="str">
+        <f>A55</f>
         <v>UC/UG</v>
       </c>
-      <c r="AB38" s="17" t="str">
-        <f>X38</f>
+      <c r="AB55" s="26" t="str">
+        <f>X55</f>
         <v>9/2598964-1</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE38" s="3" t="str">
-        <f>LEFT(AI37,FIND(",",AI37,1)-1)</f>
-        <v>521</v>
-      </c>
-      <c r="AF38" s="3" t="str">
-        <f>MID(AI37,SEARCH(",",AI37),3)</f>
-        <v>,47</v>
-      </c>
-      <c r="AG38" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>521,47</v>
-      </c>
-      <c r="AH38" s="3">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AI38" s="7" t="str">
-        <f>RIGHT(AI37,AJ37-AH38)</f>
-        <v>-521,477,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="19"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AA39" s="17">
-        <f>A39</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="17">
-        <f t="shared" ref="AB39:AB70" si="20">D39</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE39" s="3" t="str">
-        <f>LEFT(AI38,FIND(",",AI38,1)-1)</f>
-        <v>-521</v>
-      </c>
-      <c r="AF39" s="3" t="str">
-        <f>MID(AI37,SEARCH(",",AI37),3)</f>
-        <v>,47</v>
-      </c>
-      <c r="AG39" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>-521,47</v>
-      </c>
-      <c r="AH39" s="3">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AI39" s="7" t="str">
-        <f>RIGHT(AI38,AJ38-AH39)</f>
-        <v>7,8567,16169,5516.634,38</v>
-      </c>
-      <c r="AJ39" s="7">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB40" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE40" s="3" t="str">
-        <f>LEFT(AI39,FIND(",",AI39,1)-1)</f>
-        <v>7</v>
-      </c>
-      <c r="AF40" s="3" t="str">
-        <f>MID(AI39,SEARCH(",",AI39),3)</f>
-        <v>,85</v>
-      </c>
-      <c r="AG40" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>7,85</v>
-      </c>
-      <c r="AH40" s="3">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AI40" s="7" t="str">
-        <f>RIGHT(AI39,AJ39-AH40)</f>
-        <v>67,16169,5516.634,38</v>
-      </c>
-      <c r="AJ40" s="7">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB41" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE41" s="3" t="str">
-        <f>LEFT(AI40,FIND(",",AI40,1)-1)</f>
-        <v>67</v>
-      </c>
-      <c r="AF41" s="3" t="str">
-        <f>MID(AI40,SEARCH(",",AI40),3)</f>
-        <v>,16</v>
-      </c>
-      <c r="AG41" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>67,16</v>
-      </c>
-      <c r="AH41" s="3">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AI41" s="7" t="str">
-        <f>RIGHT(AI40,AJ40-AH41)</f>
-        <v>169,5516.634,38</v>
-      </c>
-      <c r="AJ41" s="7">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB42" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE42" s="3" t="str">
-        <f t="shared" ref="AE42:AE43" si="21">LEFT(AI41,FIND(",",AI41,1)-1)</f>
-        <v>169</v>
-      </c>
-      <c r="AF42" s="3" t="str">
-        <f>MID(AI41,SEARCH(",",AI41),3)</f>
-        <v>,55</v>
-      </c>
-      <c r="AG42" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v>169,55</v>
-      </c>
-      <c r="AH42" s="3">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AI42" s="7" t="str">
-        <f t="shared" ref="AI42:AI43" si="22">RIGHT(AI41,AJ41-AH42)</f>
-        <v>16.634,38</v>
-      </c>
-      <c r="AJ42" s="7">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB43" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE43" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>16.634</v>
-      </c>
-      <c r="AF43" s="9" t="str">
-        <f>MID(AI42,SEARCH(",",AI42),3)</f>
-        <v>,38</v>
-      </c>
-      <c r="AG43" s="10" t="str">
-        <f t="shared" si="17"/>
-        <v>16.634,38</v>
-      </c>
-      <c r="AH43" s="9">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="AI43" s="11" t="str">
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB56" s="17">
+        <f t="shared" ref="AB56:AB87" si="22">D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB57" s="17">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AJ43" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB44" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB45" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB46" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB47" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB48" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB49" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB50" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB51" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB52" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB53" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB54" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB55" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB56" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB57" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="28:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB58" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB59" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB60" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB61" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB62" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB63" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="28:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AB64" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB65" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB66" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB67" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB68" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB69" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB70" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB71" s="17">
-        <f t="shared" ref="AB71:AB98" si="23">D71</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB72" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB73" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB74" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB75" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB76" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB77" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB78" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB79" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB80" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB81" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB82" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB83" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB84" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB85" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB86" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB87" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB88" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AB88:AB115" si="23">D88</f>
         <v>0</v>
       </c>
     </row>
@@ -15777,109 +17599,109 @@
     </row>
     <row r="99" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB99" s="17">
-        <f t="shared" ref="AB99:AB162" si="24">D99</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB100" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB101" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB102" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB103" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB104" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB105" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB106" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB107" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB108" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB109" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB110" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB111" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB112" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB113" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB114" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB115" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB116" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AB116:AB179" si="24">D116</f>
         <v>0</v>
       </c>
     </row>
@@ -16161,109 +17983,109 @@
     </row>
     <row r="163" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB163" s="17">
-        <f t="shared" ref="AB163:AB226" si="25">D163</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB164" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB165" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB166" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB167" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB168" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB169" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB170" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB171" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB172" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB173" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB174" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB175" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB176" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB177" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB178" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB179" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB180" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AB180:AB243" si="25">D180</f>
         <v>0</v>
       </c>
     </row>
@@ -16545,109 +18367,109 @@
     </row>
     <row r="227" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB227" s="17">
-        <f t="shared" ref="AB227:AB274" si="26">D227</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB228" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB229" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB230" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB231" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB232" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB233" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB234" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB235" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB236" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB237" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB238" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB239" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB240" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB241" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB242" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB243" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB244" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AB244:AB291" si="26">D244</f>
         <v>0</v>
       </c>
     </row>
@@ -16827,6 +18649,108 @@
     </row>
     <row r="274" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB274" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB275" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB276" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB277" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB278" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB279" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB280" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB281" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB282" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB283" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB284" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB285" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB286" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB287" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB288" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB289" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB290" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB291" s="17">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>

--- a/TRATAMENTO_DE_DADOS.xlsx
+++ b/TRATAMENTO_DE_DADOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\andre\Documents\FACULDADE\2022\TCC\codigos\PDFMiner\pdf-miner-faturas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F95C8-3598-481A-A733-E71E9610564E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF803281-0FDA-4BA5-BB8E-E8E7A10595D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -125,58 +125,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-Captura anterior
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Author:
-Captura atual</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Author:
-Próxima Captura</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
   <si>
     <t>XY</t>
   </si>
@@ -281,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Custeio Ilum. Publ. </t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Lenght</t>
@@ -524,9 +475,6 @@
   </si>
   <si>
     <t>Data de leitura vazia</t>
-  </si>
-  <si>
-    <t>Mais de uma fatura válida no mesmo mês</t>
   </si>
   <si>
     <t>Mês de referência em formato inválido</t>
@@ -1446,7 +1394,7 @@
             <v xml:space="preserve"> às: </v>
           </cell>
           <cell r="E2" t="str">
-            <v>13:57:02</v>
+            <v>14:00:50</v>
           </cell>
         </row>
         <row r="3">
@@ -3764,7 +3712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
@@ -3809,7 +3757,7 @@
       </c>
       <c r="D2" t="str">
         <f>[1]Sheet1!$E2</f>
-        <v>13:57:02</v>
+        <v>14:00:50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10241,7 +10189,7 @@
       </c>
       <c r="AA2" s="15" t="str">
         <f>raw!D2</f>
-        <v>13:57:02</v>
+        <v>14:00:50</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -13649,10 +13597,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU297"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="AC31" sqref="AC31"/>
+      <selection pane="topRight" activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13681,7 +13629,7 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>3</v>
@@ -13696,7 +13644,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -13707,9 +13655,9 @@
       <c r="AC1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="75" t="str">
+      <c r="AD1" s="25" t="str">
         <f t="shared" ref="AD1:AD19" si="0">A1</f>
-        <v>Name</v>
+        <v>Nome</v>
       </c>
       <c r="AE1" s="26" t="s">
         <v>8</v>
@@ -13732,7 +13680,7 @@
       </c>
       <c r="AE2" s="42" t="str">
         <f>raw!D2</f>
-        <v>13:57:02</v>
+        <v>14:00:50</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -13943,7 +13891,7 @@
     </row>
     <row r="5" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>189</v>
@@ -14366,46 +14314,46 @@
         <v>31/08/2022</v>
       </c>
       <c r="AG8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AO8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AO8" s="60" t="s">
-        <v>45</v>
-      </c>
       <c r="AP8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AQ8" s="55" t="s">
+      <c r="AR8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AR8" s="55" t="s">
+      <c r="AS8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AS8" s="55" t="s">
+      <c r="AT8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AT8" s="55" t="s">
+      <c r="AU8" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="AU8" s="56" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14535,7 +14483,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="14">
         <v>176</v>
@@ -14657,7 +14605,7 @@
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14668,7 +14616,7 @@
         <v>128,10</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="97" t="str">
         <f>LEFT(AL9,FIND(",",AL9,1)-1)</f>
@@ -14695,7 +14643,7 @@
         <v>43</v>
       </c>
       <c r="AO11" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP11" t="e">
         <f>LEFT(AT9,FIND(",",AT9,1)-1)</f>
@@ -14724,7 +14672,7 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD12" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14735,7 +14683,7 @@
         <v>128,10</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH12" s="97" t="str">
         <f t="shared" ref="AH12:AH18" si="5">LEFT(AL11,FIND(",",AL11,1)-1)</f>
@@ -14762,7 +14710,7 @@
         <v>37</v>
       </c>
       <c r="AO12" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP12" t="e">
         <f>LEFT(AT11,FIND(",",AT11,1)-1)</f>
@@ -14791,7 +14739,7 @@
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD13" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14802,7 +14750,7 @@
         <v>1.489,95</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH13" s="97" t="str">
         <f t="shared" si="5"/>
@@ -14829,7 +14777,7 @@
         <v>29</v>
       </c>
       <c r="AO13" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP13" s="52" t="e">
         <f>LEFT(AT12,FIND(",",AT12,1)-1)</f>
@@ -14858,7 +14806,7 @@
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD14" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14869,7 +14817,7 @@
         <v>1.489,95</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH14" s="97" t="str">
         <f t="shared" si="5"/>
@@ -14898,7 +14846,7 @@
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14909,7 +14857,7 @@
         <v>14,70</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH15" s="97" t="str">
         <f t="shared" si="5"/>
@@ -14938,7 +14886,7 @@
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14949,7 +14897,7 @@
         <v>200,55</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH16" s="97" t="str">
         <f t="shared" si="5"/>
@@ -14978,7 +14926,7 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="19" t="str">
         <f t="shared" si="0"/>
@@ -14989,7 +14937,7 @@
         <v>8,40</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH17" s="97" t="str">
         <f t="shared" si="5"/>
@@ -15018,7 +14966,7 @@
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD18" s="19" t="str">
         <f t="shared" si="0"/>
@@ -15029,7 +14977,7 @@
         <v>824,10</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH18" s="97" t="str">
         <f t="shared" si="5"/>
@@ -15058,7 +15006,7 @@
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2">
         <v>369</v>
@@ -15159,10 +15107,10 @@
         <v>128,101.489,951.489,950,00832,5014,70200,550,000,00</v>
       </c>
       <c r="AA19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC19" t="str">
         <f>LEFT(Z19,FIND(",",Z19)+2)</f>
@@ -15177,7 +15125,7 @@
         <v>128,10</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="97" t="str">
         <f>LEFT(AL17,FIND(",",AL17,1)-1)</f>
@@ -15206,7 +15154,7 @@
     </row>
     <row r="20" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X20" t="str">
         <f>Z19</f>
@@ -15225,7 +15173,7 @@
         <v>1.489,950,00832,5014,70200,550,000,00</v>
       </c>
       <c r="AB20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC20" t="str">
         <f>LEFT(AA20,FIND(",",AA20)+2)</f>
@@ -15240,7 +15188,7 @@
         <v>1.489,95</v>
       </c>
       <c r="AG20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH20" s="8" t="e">
         <f>LEFT(AL18,FIND(",",AL18,1)-1)</f>
@@ -15269,7 +15217,7 @@
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2">
         <v>324</v>
@@ -15384,7 +15332,7 @@
     </row>
     <row r="22" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="10"/>
@@ -15431,7 +15379,7 @@
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="100">
         <v>176</v>
@@ -15544,7 +15492,7 @@
     </row>
     <row r="24" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
@@ -15559,7 +15507,7 @@
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -15572,51 +15520,51 @@
         <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AG25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AP25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ25" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AR25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AJ25" s="1" t="s">
+      <c r="AS25" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AK25" s="1" t="s">
+      <c r="AT25" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AU25" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="AM25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO25" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP25" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ25" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR25" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS25" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT25" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU25" s="56" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
@@ -15649,7 +15597,7 @@
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2">
         <v>321</v>
@@ -15772,7 +15720,7 @@
     </row>
     <row r="28" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2">
         <v>324</v>
@@ -15881,11 +15829,11 @@
         <v>Créditos Energia</v>
       </c>
       <c r="AE28" s="89" t="str">
-        <f>IF(AND(ISNA(AC28),ISNA(AC26)),"Grande consumidor ver acima /|\",IF(ISNA(AC28),"não há créditos",AC28))</f>
-        <v>não há créditos</v>
+        <f>IF(AND(ISNA(AC28),ISNA(AC27)),"Grande consumidor ver acima /|\",IF(ISNA(AC28),"0",AC28))</f>
+        <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH28" t="str">
         <f>LEFT(AL26,FIND(",",AL26,1)-1)</f>
@@ -15916,7 +15864,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="14">
         <v>254</v>
@@ -16027,7 +15975,7 @@
         <v>13</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH29" t="str">
         <f t="shared" ref="AH29:AH35" si="12">LEFT(AL28,FIND(",",AL28,1)-1)</f>
@@ -16054,7 +16002,7 @@
         <v>50</v>
       </c>
       <c r="AO29" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AP29" t="e">
         <f>LEFT(AT26,FIND(",",AT26,1)-1)</f>
@@ -16083,7 +16031,7 @@
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD30" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16094,7 +16042,7 @@
         <v>1,616240</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH30" t="str">
         <f t="shared" si="12"/>
@@ -16121,7 +16069,7 @@
         <v>42</v>
       </c>
       <c r="AO30" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP30" t="e">
         <f>LEFT(AT29,FIND(",",AT29,1)-1)</f>
@@ -16150,7 +16098,7 @@
     </row>
     <row r="31" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD31" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16161,7 +16109,7 @@
         <v>1,616240</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="str">
         <f t="shared" si="12"/>
@@ -16188,7 +16136,7 @@
         <v>34</v>
       </c>
       <c r="AO31" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP31" s="52" t="e">
         <f>LEFT(AT30,FIND(",",AT30,1)-1)</f>
@@ -16217,7 +16165,7 @@
     </row>
     <row r="32" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD32" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16228,7 +16176,7 @@
         <v>0,449840</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="str">
         <f t="shared" si="12"/>
@@ -16257,7 +16205,7 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD33" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16268,7 +16216,7 @@
         <v>0,449840</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="str">
         <f t="shared" si="12"/>
@@ -16297,7 +16245,7 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD34" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16308,7 +16256,7 @@
         <v>0,340220</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="str">
         <f t="shared" si="12"/>
@@ -16337,7 +16285,7 @@
     </row>
     <row r="35" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD35" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16348,7 +16296,7 @@
         <v>0,340220</v>
       </c>
       <c r="AG35" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH35" s="8" t="str">
         <f t="shared" si="12"/>
@@ -16377,7 +16325,7 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD36" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16390,7 +16338,7 @@
     </row>
     <row r="37" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD37" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16403,7 +16351,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="102">
         <v>257</v>
@@ -16516,7 +16464,7 @@
     </row>
     <row r="39" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
@@ -16531,7 +16479,7 @@
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="76"/>
       <c r="C40" s="77"/>
@@ -16544,51 +16492,51 @@
         <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AG40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM40" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO40" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AH40" s="1" t="s">
+      <c r="AP40" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ40" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AI40" s="1" t="s">
+      <c r="AR40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AJ40" s="1" t="s">
+      <c r="AS40" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AK40" s="1" t="s">
+      <c r="AT40" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AL40" s="11" t="s">
+      <c r="AU40" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="AM40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO40" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP40" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ40" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR40" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS40" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT40" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU40" s="56" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:47" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="78"/>
       <c r="C41" s="79"/>
@@ -16647,7 +16595,7 @@
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="14">
         <v>293</v>
@@ -16761,7 +16709,7 @@
       <c r="AL42" s="6"/>
       <c r="AM42" s="6"/>
       <c r="AO42" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP42" t="e">
         <f>LEFT(AT41,FIND(",",AT41,1)-1)</f>
@@ -16790,7 +16738,7 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD43" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16801,7 +16749,7 @@
         <v>207,04</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="str">
         <f>LEFT(AL41,FIND(",",AL41,1)-1)</f>
@@ -16828,7 +16776,7 @@
         <v>44</v>
       </c>
       <c r="AO43" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP43" t="e">
         <f>LEFT(AT42,FIND(",",AT42,1)-1)</f>
@@ -16857,7 +16805,7 @@
     </row>
     <row r="44" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD44" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16868,7 +16816,7 @@
         <v>-207,04</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="str">
         <f t="shared" ref="AH44:AH50" si="19">LEFT(AL43,FIND(",",AL43,1)-1)</f>
@@ -16895,7 +16843,7 @@
         <v>37</v>
       </c>
       <c r="AO44" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP44" s="52" t="e">
         <f>LEFT(AT43,FIND(",",AT43,1)-1)</f>
@@ -16924,7 +16872,7 @@
     </row>
     <row r="45" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD45" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16935,7 +16883,7 @@
         <v>670,26</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="str">
         <f t="shared" si="19"/>
@@ -16964,7 +16912,7 @@
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD46" s="19" t="str">
         <f t="shared" si="8"/>
@@ -16975,7 +16923,7 @@
         <v>-670,26</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH46" t="str">
         <f t="shared" si="19"/>
@@ -17004,7 +16952,7 @@
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD47" s="19" t="str">
         <f t="shared" si="8"/>
@@ -17015,7 +16963,7 @@
         <v>5,00</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH47" t="str">
         <f t="shared" si="19"/>
@@ -17044,7 +16992,7 @@
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD48" s="19" t="str">
         <f t="shared" si="8"/>
@@ -17055,7 +17003,7 @@
         <v>68,23</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH48" t="str">
         <f t="shared" si="19"/>
@@ -17084,7 +17032,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD49" s="19" t="str">
         <f t="shared" si="8"/>
@@ -17095,7 +17043,7 @@
         <v>169,55</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH49" t="str">
         <f t="shared" si="19"/>
@@ -17124,7 +17072,7 @@
     </row>
     <row r="50" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="10"/>
@@ -17163,7 +17111,7 @@
         <v>16.634,38</v>
       </c>
       <c r="AG50" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH50" s="8" t="str">
         <f t="shared" si="19"/>
@@ -17192,7 +17140,7 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="104">
         <v>293</v>
@@ -17305,7 +17253,7 @@
     </row>
     <row r="52" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
@@ -17320,7 +17268,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="76"/>
       <c r="C53" s="77"/>
@@ -17333,30 +17281,30 @@
         <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="AG53" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AH53" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI53" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AI53" s="55" t="s">
+      <c r="AJ53" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AJ53" s="55" t="s">
+      <c r="AK53" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="AK53" s="55" t="s">
+      <c r="AL53" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="AL53" s="55" t="s">
+      <c r="AM53" s="56" t="s">
         <v>43</v>
-      </c>
-      <c r="AM53" s="56" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="80"/>
       <c r="C54" s="81"/>
@@ -17406,7 +17354,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="102">
         <v>304</v>
@@ -17521,7 +17469,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="80"/>
       <c r="C56" s="81"/>
@@ -17538,7 +17486,7 @@
         <v>46,17</v>
       </c>
       <c r="AG56" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH56" t="str">
         <f>LEFT(AL54,FIND(",",AL54,1)-1)</f>
@@ -17567,7 +17515,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="76"/>
       <c r="C57" s="77"/>
@@ -17580,7 +17528,7 @@
         <v>64,16</v>
       </c>
       <c r="AG57" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH57" t="str">
         <f>LEFT(AL56,FIND(",",AL56,1)-1)</f>
@@ -17609,7 +17557,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="76"/>
       <c r="C58" s="77"/>
@@ -17622,7 +17570,7 @@
         <v>320,82</v>
       </c>
       <c r="AG58" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH58" t="str">
         <f>LEFT(AL57,FIND(",",AL57,1)-1)</f>
@@ -17651,7 +17599,7 @@
     </row>
     <row r="59" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="78"/>
       <c r="C59" s="79"/>
@@ -17690,7 +17638,7 @@
         <v>41,51</v>
       </c>
       <c r="AG59" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH59" s="52" t="str">
         <f>LEFT(AL58,FIND(",",AL58,1)-1)</f>
@@ -17833,7 +17781,7 @@
     </row>
     <row r="61" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="7">
         <v>435</v>
@@ -19393,7 +19341,7 @@
       </c>
       <c r="B2" s="67" t="str">
         <f>ENEL!AA2</f>
-        <v>13:57:02</v>
+        <v>14:00:50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -21396,8 +21344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21408,13 +21356,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -21424,7 +21372,7 @@
       </c>
       <c r="B2" s="67" t="str">
         <f>Energisa!AE2</f>
-        <v>13:57:02</v>
+        <v>14:00:50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21753,7 +21701,7 @@
       </c>
       <c r="B28" s="66" t="str">
         <f>Energisa!AE28</f>
-        <v>não há créditos</v>
+        <v>Grande consumidor ver acima /|\</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -23552,10 +23500,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23570,18 +23518,18 @@
   <sheetData>
     <row r="1" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="107" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="107" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="108"/>
       <c r="E1" s="109"/>
       <c r="F1" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -23589,7 +23537,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63" t="str">
@@ -23607,7 +23555,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="63" t="str">
         <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
@@ -23628,7 +23576,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63" t="str">
@@ -23646,23 +23594,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="63" t="str">
-        <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/07/2022</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C5" s="63"/>
       <c r="D5" s="63" t="str">
-        <f>VLOOKUP("Data de Emissao",'Dados Energisa'!A4:B201,2,0)</f>
-        <v>01/09/2022</v>
-      </c>
-      <c r="E5" s="63" t="str">
-        <f>VLOOKUP("Proxima Leitura",'Dados Energisa'!A:B,2,0)</f>
-        <v>30/09/2022</v>
-      </c>
+        <f>VLOOKUP("Mes de Referencia",'Dados Energisa'!A:B,2,0)</f>
+        <v>Agosto/2022</v>
+      </c>
+      <c r="E5" s="63"/>
       <c r="F5" s="63" t="str">
-        <f>IF(OR(MONTH(C5)=MONTH(D5),MONTH(D5)=MONTH(E5)),"Mais de uma fatura em um mesmo mês","Sem erros")</f>
-        <v>Mais de uma fatura em um mesmo mês</v>
+        <f>IF(OR(ISERROR(DAY(D5)),ISERROR(MONTH(D5)),ISERROR(YEAR(D5))),"Mês e/ou ano de referência com erros ou em formato inválido","Sem erros")</f>
+        <v>Sem erros</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -23670,16 +23612,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="63" t="str">
-        <f>VLOOKUP("Mes de Referencia",'Dados Energisa'!A:B,2,0)</f>
-        <v>Agosto/2022</v>
+        <f>VLOOKUP("Vencimento",'Dados Energisa'!A:B,2,0)</f>
+        <v>14/09/2022</v>
       </c>
       <c r="E6" s="63"/>
       <c r="F6" s="63" t="str">
-        <f>IF(OR(ISERROR(DAY(D6)),ISERROR(MONTH(D6)),ISERROR(YEAR(D6))),"Mês e/ou ano de referência com erros ou em formato inválido","Sem erros")</f>
+        <f>IF(OR(ISERROR(DAY(D6)),ISERROR(MONTH(D6)),ISERROR(YEAR(D6))),"Data de vencimento com erros ou em formato inválido","Sem erros")</f>
         <v>Sem erros</v>
       </c>
     </row>
@@ -23688,34 +23630,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63" t="str">
-        <f>VLOOKUP("Vencimento",'Dados Energisa'!A:B,2,0)</f>
-        <v>14/09/2022</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C7" s="63" t="str">
+        <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
+        <v>31/07/2022</v>
+      </c>
+      <c r="D7" s="63"/>
       <c r="E7" s="63"/>
       <c r="F7" s="63" t="str">
-        <f>IF(OR(ISERROR(DAY(D7)),ISERROR(MONTH(D7)),ISERROR(YEAR(D7))),"Data de vencimento com erros ou em formato inválido","Sem erros")</f>
-        <v>Sem erros</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
-        <v>7</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="63" t="str">
-        <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/07/2022</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="str">
-        <f>IF(OR(ISERROR(MONTH(C8)),ISERROR(YEAR(C8))),"Data da leitura anterior com erro ou em formato inválido","Sem erros")</f>
+        <f>IF(OR(ISERROR(MONTH(C7)),ISERROR(YEAR(C7))),"Data da leitura anterior com erro ou em formato inválido","Sem erros")</f>
         <v>Sem erros</v>
       </c>
     </row>
